--- a/teams_and_users.xlsx
+++ b/teams_and_users.xlsx
@@ -33,9 +33,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -66,9 +65,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,1164 +398,1724 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" t="str">
         <v>player</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" t="str">
         <v>Saifala</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" t="str">
         <v>Max Homa</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B3" s="1" t="str">
+      <c r="A3" t="str">
+        <v/>
+      </c>
+      <c r="B3" t="str">
         <v>Rasmus Hojgaard</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B4" s="1" t="str">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
         <v>Adam Svensson</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B5" s="1" t="str">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
         <v>Lee Hodges</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B6" s="1" t="str">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
         <v>Jordan Smith</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B7" s="1" t="str">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
         <v>Takumi Kanaya</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" t="str">
         <v>CheckingBrook</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B8" t="str">
         <v>Brooks Koepka</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B9" s="1" t="str">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
         <v>Braden Shattuck</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B10" s="1" t="str">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
         <v>Evan Bowser</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B11" s="1" t="str">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
         <v>John Daly</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B12" s="1" t="str">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
         <v>Wyatt Worthington II</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B13" s="1" t="str">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
         <v>Jeffrey Kellen</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="str">
+      <c r="A14" t="str">
         <v>Br2</v>
       </c>
-      <c r="B14" s="1" t="str">
+      <c r="B14" t="str">
         <v>Brooks Koepka</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B15" s="1" t="str">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
         <v>Emiliano Grillo</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B16" s="1" t="str">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
         <v>Rich Beem</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B17" s="1" t="str">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
         <v>Larkin Gross</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B18" s="1" t="str">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
         <v>Jared Jones</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B19" s="1" t="str">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
         <v>Matt Dobyns</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="str">
+      <c r="A20" t="str">
         <v>Br3</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B20" t="str">
         <v>Brooks Koepka</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B21" s="1" t="str">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
         <v>Braden Shattuck</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B22" s="1" t="str">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
         <v>Evan Bowser</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B23" s="1" t="str">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
         <v>John Daly</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B24" s="1" t="str">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
         <v>Wyatt Worthington II</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B25" s="1" t="str">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
         <v>Jeffrey Kellen</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="str">
+      <c r="A26" t="str">
         <v>Br4</v>
       </c>
-      <c r="B26" s="1" t="str">
+      <c r="B26" t="str">
         <v>Brooks Koepka</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B27" s="1" t="str">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
         <v>Braden Shattuck</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B28" s="1" t="str">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
         <v>Josh Speight</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B29" s="1" t="str">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
         <v>John Daly</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B30" s="1" t="str">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
         <v>Wyatt Worthington II</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B31" s="1" t="str">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
         <v>Jeffrey Kellen</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="str">
+      <c r="A32" t="str">
         <v>Br5</v>
       </c>
-      <c r="B32" s="1" t="str">
+      <c r="B32" t="str">
         <v>Brooks Koepka</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B33" s="1" t="str">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
         <v>Braden Shattuck</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B34" s="1" t="str">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
         <v>Josh Speight</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B35" s="1" t="str">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
         <v>John Daly</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B36" s="1" t="str">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
         <v>Wyatt Worthington II</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B37" s="1" t="str">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
         <v>Jeffrey Kellen</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="str">
+      <c r="A38" t="str">
         <v>Br3</v>
       </c>
-      <c r="B38" s="1" t="str">
+      <c r="B38" t="str">
         <v>Jon Rahm</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B39" s="1" t="str">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
         <v>Braden Shattuck</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B40" s="1" t="str">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
         <v>Evan Bowser</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B41" s="1" t="str">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
         <v>Wyatt Worthington II</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B42" s="1" t="str">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
         <v>Jeffrey Kellen</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B43" s="1" t="str">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
         <v>saifal aman</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="str">
+      <c r="A44" t="str">
         <v>Br4</v>
       </c>
-      <c r="B44" s="1" t="str">
+      <c r="B44" t="str">
         <v>Jon Rahm</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B45" s="1" t="str">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
         <v>Nick Dunlap</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B46" s="1" t="str">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
         <v>Kyoung-Hoon Lee</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B47" s="1" t="str">
+      <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
         <v>Mark Hubbard</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B48" s="1" t="str">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
         <v>Phil Mickelson</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B49" s="1" t="str">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
         <v>Seonghyeon Kim</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="str">
+      <c r="A50" t="str">
         <v>Br5</v>
       </c>
-      <c r="B50" s="1" t="str">
+      <c r="B50" t="str">
         <v>Brooks Koepka</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B51" s="1" t="str">
+      <c r="A51" t="str">
+        <v/>
+      </c>
+      <c r="B51" t="str">
         <v>Mark Hubbard</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B52" s="1" t="str">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
         <v>Phil Mickelson</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B53" s="1" t="str">
+      <c r="A53" t="str">
+        <v/>
+      </c>
+      <c r="B53" t="str">
         <v>Seonghyeon Kim</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B54" s="1" t="str">
+      <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
         <v>Doug Ghim</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B55" s="1" t="str">
+      <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
         <v>Ryo Hisatsune</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="str">
+      <c r="A56" t="str">
         <v>Checking1212</v>
       </c>
-      <c r="B56" s="1" t="str">
+      <c r="B56" t="str">
         <v>Adrian Otaegui</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B57" s="1" t="str">
+      <c r="A57" t="str">
+        <v/>
+      </c>
+      <c r="B57" t="str">
         <v>Emiliano Grillo</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B58" s="1" t="str">
+      <c r="A58" t="str">
+        <v/>
+      </c>
+      <c r="B58" t="str">
         <v>Rasmus Hojgaard</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B59" s="1" t="str">
+      <c r="A59" t="str">
+        <v/>
+      </c>
+      <c r="B59" t="str">
         <v>Adam Svensson</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B60" s="1" t="str">
+      <c r="A60" t="str">
+        <v/>
+      </c>
+      <c r="B60" t="str">
         <v>Lee Hodges</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B61" s="1" t="str">
+      <c r="A61" t="str">
+        <v/>
+      </c>
+      <c r="B61" t="str">
         <v>Jordan Smith</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="str">
+      <c r="A62" t="str">
         <v>MySelf</v>
       </c>
-      <c r="B62" s="1" t="str">
+      <c r="B62" t="str">
         <v>Adam Schenk</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B63" s="1" t="str">
+      <c r="A63" t="str">
+        <v/>
+      </c>
+      <c r="B63" t="str">
         <v>Taylor Pendrith</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B64" s="1" t="str">
+      <c r="A64" t="str">
+        <v/>
+      </c>
+      <c r="B64" t="str">
         <v>Thomas Detry</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B65" s="1" t="str">
+      <c r="A65" t="str">
+        <v/>
+      </c>
+      <c r="B65" t="str">
         <v>Tom Hoge</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B66" s="1" t="str">
+      <c r="A66" t="str">
+        <v/>
+      </c>
+      <c r="B66" t="str">
         <v>Adam Hadwin</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B67" s="1" t="str">
+      <c r="A67" t="str">
+        <v/>
+      </c>
+      <c r="B67" t="str">
         <v>Taylor Moore</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="str">
+      <c r="A68" t="str">
         <v>Checkingaaa</v>
       </c>
-      <c r="B68" s="1" t="str">
+      <c r="B68" t="str">
         <v>Sahith Theegala</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B69" s="1" t="str">
+      <c r="A69" t="str">
+        <v/>
+      </c>
+      <c r="B69" t="str">
         <v>Tony Finau</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B70" s="1" t="str">
+      <c r="A70" t="str">
+        <v/>
+      </c>
+      <c r="B70" t="str">
         <v>Sam Burns</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B71" s="1" t="str">
+      <c r="A71" t="str">
+        <v/>
+      </c>
+      <c r="B71" t="str">
         <v>Min Woo Lee</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B72" s="1" t="str">
+      <c r="A72" t="str">
+        <v/>
+      </c>
+      <c r="B72" t="str">
         <v>Corey Conners</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B73" s="1" t="str">
+      <c r="A73" t="str">
+        <v/>
+      </c>
+      <c r="B73" t="str">
         <v>Russell Henley</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="str">
+      <c r="A74" t="str">
         <v>asss</v>
       </c>
-      <c r="B74" s="1" t="str">
+      <c r="B74" t="str">
         <v>Nick Dunlap</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B75" s="1" t="str">
+      <c r="A75" t="str">
+        <v/>
+      </c>
+      <c r="B75" t="str">
         <v>Kyoung-Hoon Lee</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B76" s="1" t="str">
+      <c r="A76" t="str">
+        <v/>
+      </c>
+      <c r="B76" t="str">
         <v>Mark Hubbard</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B77" s="1" t="str">
+      <c r="A77" t="str">
+        <v/>
+      </c>
+      <c r="B77" t="str">
         <v>Phil Mickelson</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B78" s="1" t="str">
+      <c r="A78" t="str">
+        <v/>
+      </c>
+      <c r="B78" t="str">
         <v>Seonghyeon Kim</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B79" s="1" t="str">
+      <c r="A79" t="str">
+        <v/>
+      </c>
+      <c r="B79" t="str">
         <v>Doug Ghim</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="str">
+      <c r="A80" t="str">
         <v>s1211</v>
       </c>
-      <c r="B80" s="1" t="str">
+      <c r="B80" t="str">
         <v>Brendon Todd</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B81" s="1" t="str">
+      <c r="A81" t="str">
+        <v/>
+      </c>
+      <c r="B81" t="str">
         <v>Nick Dunlap</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B82" s="1" t="str">
+      <c r="A82" t="str">
+        <v/>
+      </c>
+      <c r="B82" t="str">
         <v>Kyoung-Hoon Lee</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B83" s="1" t="str">
+      <c r="A83" t="str">
+        <v/>
+      </c>
+      <c r="B83" t="str">
         <v>Mark Hubbard</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B84" s="1" t="str">
+      <c r="A84" t="str">
+        <v/>
+      </c>
+      <c r="B84" t="str">
         <v>Phil Mickelson</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B85" s="1" t="str">
+      <c r="A85" t="str">
+        <v/>
+      </c>
+      <c r="B85" t="str">
         <v>Seonghyeon Kim</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="str">
+      <c r="A86" t="str">
         <v>saaaa123</v>
       </c>
-      <c r="B86" s="1" t="str">
+      <c r="B86" t="str">
         <v>Brendon Todd</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B87" s="1" t="str">
+      <c r="A87" t="str">
+        <v/>
+      </c>
+      <c r="B87" t="str">
         <v>Nick Dunlap</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B88" s="1" t="str">
+      <c r="A88" t="str">
+        <v/>
+      </c>
+      <c r="B88" t="str">
         <v>Kyoung-Hoon Lee</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B89" s="1" t="str">
+      <c r="A89" t="str">
+        <v/>
+      </c>
+      <c r="B89" t="str">
         <v>Mark Hubbard</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B90" s="1" t="str">
+      <c r="A90" t="str">
+        <v/>
+      </c>
+      <c r="B90" t="str">
         <v>Phil Mickelson</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B91" s="1" t="str">
+      <c r="A91" t="str">
+        <v/>
+      </c>
+      <c r="B91" t="str">
         <v>Seonghyeon Kim</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="str">
+      <c r="A92" t="str">
         <v>111</v>
       </c>
-      <c r="B92" s="1" t="str">
+      <c r="B92" t="str">
         <v>Alex Noren</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B93" s="1" t="str">
+      <c r="A93" t="str">
+        <v/>
+      </c>
+      <c r="B93" t="str">
         <v>Denny McCarthy</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B94" s="1" t="str">
+      <c r="A94" t="str">
+        <v/>
+      </c>
+      <c r="B94" t="str">
         <v>Rickie Fowler</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B95" s="1" t="str">
+      <c r="A95" t="str">
+        <v/>
+      </c>
+      <c r="B95" t="str">
         <v>Dean Burmester</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B96" s="1" t="str">
+      <c r="A96" t="str">
+        <v/>
+      </c>
+      <c r="B96" t="str">
         <v>Patrick Reed</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B97" s="1" t="str">
+      <c r="A97" t="str">
+        <v/>
+      </c>
+      <c r="B97" t="str">
         <v>Christiaan Bezuidenhout</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="str">
+      <c r="A98" t="str">
         <v>123</v>
       </c>
-      <c r="B98" s="1" t="str">
+      <c r="B98" t="str">
         <v>Keith Mitchell</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B99" s="1" t="str">
+      <c r="A99" t="str">
+        <v/>
+      </c>
+      <c r="B99" t="str">
         <v>Cam Davis</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B100" s="1" t="str">
+      <c r="A100" t="str">
+        <v/>
+      </c>
+      <c r="B100" t="str">
         <v>J.T Poston</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B101" s="1" t="str">
+      <c r="A101" t="str">
+        <v/>
+      </c>
+      <c r="B101" t="str">
         <v>Aaron Rai</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B102" s="1" t="str">
+      <c r="A102" t="str">
+        <v/>
+      </c>
+      <c r="B102" t="str">
         <v>Chris Kirk</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B103" s="1" t="str">
+      <c r="A103" t="str">
+        <v/>
+      </c>
+      <c r="B103" t="str">
         <v>Mackenzie Hughes</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="str">
+      <c r="A104" t="str">
         <v>121</v>
       </c>
-      <c r="B104" s="1" t="str">
+      <c r="B104" t="str">
         <v>Xander Schauffele</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B105" s="1" t="str">
+      <c r="A105" t="str">
+        <v/>
+      </c>
+      <c r="B105" t="str">
         <v>Matt Wallace</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B106" s="1" t="str">
+      <c r="A106" t="str">
+        <v/>
+      </c>
+      <c r="B106" t="str">
         <v>Brendon Todd</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B107" s="1" t="str">
+      <c r="A107" t="str">
+        <v/>
+      </c>
+      <c r="B107" t="str">
         <v>Keita Nakajima</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B108" s="1" t="str">
+      <c r="A108" t="str">
+        <v/>
+      </c>
+      <c r="B108" t="str">
         <v>Nick Dunlap</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B109" s="1" t="str">
+      <c r="A109" t="str">
+        <v/>
+      </c>
+      <c r="B109" t="str">
         <v>Kyoung-Hoon Lee</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="str">
+      <c r="A110" t="str">
         <v>11</v>
       </c>
-      <c r="B110" s="1" t="str">
+      <c r="B110" t="str">
         <v>Nick Taylor</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B111" s="1" t="str">
+      <c r="A111" t="str">
+        <v/>
+      </c>
+      <c r="B111" t="str">
         <v>Patrick Rodgers</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B112" s="1" t="str">
+      <c r="A112" t="str">
+        <v/>
+      </c>
+      <c r="B112" t="str">
         <v>Thorbjorn Olesen</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B113" s="1" t="str">
+      <c r="A113" t="str">
+        <v/>
+      </c>
+      <c r="B113" t="str">
         <v>Austin Eckroat</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B114" s="1" t="str">
+      <c r="A114" t="str">
+        <v/>
+      </c>
+      <c r="B114" t="str">
         <v>Victor Perez</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B115" s="1" t="str">
+      <c r="A115" t="str">
+        <v/>
+      </c>
+      <c r="B115" t="str">
         <v>saifal aman</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="str">
+      <c r="A116" t="str">
         <v>Checking</v>
       </c>
-      <c r="B116" s="1" t="str">
+      <c r="B116" t="str">
         <v>Joaquin Niemann</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B117" s="1" t="str">
+      <c r="A117" t="str">
+        <v/>
+      </c>
+      <c r="B117" t="str">
         <v>Justin Thomas</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B118" s="1" t="str">
+      <c r="A118" t="str">
+        <v/>
+      </c>
+      <c r="B118" t="str">
         <v>Viktor Hovland</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B119" s="1" t="str">
+      <c r="A119" t="str">
+        <v/>
+      </c>
+      <c r="B119" t="str">
         <v>Wyndham Clark</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B120" s="1" t="str">
+      <c r="A120" t="str">
+        <v/>
+      </c>
+      <c r="B120" t="str">
         <v>Tyrrell Hatton</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B121" s="1" t="str">
+      <c r="A121" t="str">
+        <v/>
+      </c>
+      <c r="B121" t="str">
         <v>Larkin Gross</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="str">
+      <c r="A122" t="str">
         <v>s</v>
       </c>
-      <c r="B122" s="1" t="str">
+      <c r="B122" t="str">
         <v>Matt Wallace</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B123" s="1" t="str">
+      <c r="A123" t="str">
+        <v/>
+      </c>
+      <c r="B123" t="str">
         <v>Brendon Todd</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B124" s="1" t="str">
+      <c r="A124" t="str">
+        <v/>
+      </c>
+      <c r="B124" t="str">
         <v>Keita Nakajima</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B125" s="1" t="str">
+      <c r="A125" t="str">
+        <v/>
+      </c>
+      <c r="B125" t="str">
         <v>Doug Ghim</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B126" s="1" t="str">
+      <c r="A126" t="str">
+        <v/>
+      </c>
+      <c r="B126" t="str">
         <v>Ryo Hisatsune</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B127" s="1" t="str">
+      <c r="A127" t="str">
+        <v/>
+      </c>
+      <c r="B127" t="str">
         <v>David Puig</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="str">
+      <c r="A128" t="str">
         <v>Checking121</v>
       </c>
-      <c r="B128" s="1" t="str">
+      <c r="B128" t="str">
         <v>Rickie Fowler</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B129" s="1" t="str">
+      <c r="A129" t="str">
+        <v/>
+      </c>
+      <c r="B129" t="str">
         <v>Dean Burmester</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B130" s="1" t="str">
+      <c r="A130" t="str">
+        <v/>
+      </c>
+      <c r="B130" t="str">
         <v>Patrick Reed</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B131" s="1" t="str">
+      <c r="A131" t="str">
+        <v/>
+      </c>
+      <c r="B131" t="str">
         <v>Christiaan Bezuidenhout</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B132" s="1" t="str">
+      <c r="A132" t="str">
+        <v/>
+      </c>
+      <c r="B132" t="str">
         <v>Billy Horschel</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B133" s="1" t="str">
+      <c r="A133" t="str">
+        <v/>
+      </c>
+      <c r="B133" t="str">
         <v>Harris English</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="str">
+      <c r="A134" t="str">
+        <v>Checking11111</v>
+      </c>
+      <c r="B134" t="str">
+        <v>t1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v/>
+      </c>
+      <c r="B135" t="str">
+        <v>t2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v/>
+      </c>
+      <c r="B136" t="str">
+        <v>t3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v/>
+      </c>
+      <c r="B137" t="str">
+        <v>t4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v/>
+      </c>
+      <c r="B138" t="str">
+        <v>t5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v/>
+      </c>
+      <c r="B139" t="str">
+        <v>t6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Checking`</v>
+      </c>
+      <c r="B140" t="str">
+        <v>t6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v/>
+      </c>
+      <c r="B141" t="str">
+        <v>t7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v/>
+      </c>
+      <c r="B142" t="str">
+        <v>t8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v/>
+      </c>
+      <c r="B143" t="str">
+        <v>t9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v/>
+      </c>
+      <c r="B144" t="str">
+        <v>t10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v/>
+      </c>
+      <c r="B145" t="str">
+        <v>t11</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Saifal</v>
+      </c>
+      <c r="B146" t="str">
+        <v>t1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v/>
+      </c>
+      <c r="B147" t="str">
+        <v>t10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v/>
+      </c>
+      <c r="B148" t="str">
+        <v>t11</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v/>
+      </c>
+      <c r="B149" t="str">
+        <v>Saif</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v/>
+      </c>
+      <c r="B150" t="str">
+        <v>Saifal</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v/>
+      </c>
+      <c r="B151" t="str">
+        <v>Aman</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Checking1231</v>
+      </c>
+      <c r="B152" t="str">
+        <v>t6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v/>
+      </c>
+      <c r="B153" t="str">
+        <v>t7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v/>
+      </c>
+      <c r="B154" t="str">
+        <v>t8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v/>
+      </c>
+      <c r="B155" t="str">
+        <v>t9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v/>
+      </c>
+      <c r="B156" t="str">
+        <v>t10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v/>
+      </c>
+      <c r="B157" t="str">
+        <v>t11</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
         <v>saif</v>
       </c>
-      <c r="B134" s="1" t="str">
+      <c r="B158" t="str">
         <v>Jon Rahm</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B135" s="1" t="str">
+    <row r="159">
+      <c r="A159" t="str">
+        <v/>
+      </c>
+      <c r="B159" t="str">
         <v>Collin Morikawa</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B136" s="1" t="str">
+    <row r="160">
+      <c r="A160" t="str">
+        <v/>
+      </c>
+      <c r="B160" t="str">
         <v>Bryson DeChambeau</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B137" s="1" t="str">
+    <row r="161">
+      <c r="A161" t="str">
+        <v/>
+      </c>
+      <c r="B161" t="str">
         <v>Andrew Putnam</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B138" s="1" t="str">
+    <row r="162">
+      <c r="A162" t="str">
+        <v/>
+      </c>
+      <c r="B162" t="str">
         <v>Christopher Gotterup</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="str">
-        <v/>
-      </c>
-      <c r="B139" s="1" t="str">
+    <row r="163">
+      <c r="A163" t="str">
+        <v/>
+      </c>
+      <c r="B163" t="str">
         <v>Matt Wallace</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Checking12</v>
+      </c>
+      <c r="B164" t="str">
+        <v>t6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v/>
+      </c>
+      <c r="B165" t="str">
+        <v>t7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v/>
+      </c>
+      <c r="B166" t="str">
+        <v>t8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v/>
+      </c>
+      <c r="B167" t="str">
+        <v>t9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v/>
+      </c>
+      <c r="B168" t="str">
+        <v>t10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v/>
+      </c>
+      <c r="B169" t="str">
+        <v>t11</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Checking</v>
+      </c>
+      <c r="B170" t="str">
+        <v>t1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v/>
+      </c>
+      <c r="B171" t="str">
+        <v>t2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v/>
+      </c>
+      <c r="B172" t="str">
+        <v>t3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v/>
+      </c>
+      <c r="B173" t="str">
+        <v>t4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v/>
+      </c>
+      <c r="B174" t="str">
+        <v>t5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v/>
+      </c>
+      <c r="B175" t="str">
+        <v>Saif</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Checking1213</v>
+      </c>
+      <c r="B176" t="str">
+        <v>t1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v/>
+      </c>
+      <c r="B177" t="str">
+        <v>t2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v/>
+      </c>
+      <c r="B178" t="str">
+        <v>t10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v/>
+      </c>
+      <c r="B179" t="str">
+        <v>t11</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v/>
+      </c>
+      <c r="B180" t="str">
+        <v>Saif</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v/>
+      </c>
+      <c r="B181" t="str">
+        <v>Saifal</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>12</v>
+      </c>
+      <c r="B182" t="str">
+        <v>t3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v/>
+      </c>
+      <c r="B183" t="str">
+        <v>t4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v/>
+      </c>
+      <c r="B184" t="str">
+        <v>t5</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v/>
+      </c>
+      <c r="B185" t="str">
+        <v>t6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v/>
+      </c>
+      <c r="B186" t="str">
+        <v>t8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v/>
+      </c>
+      <c r="B187" t="str">
+        <v>t9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Checking11</v>
+      </c>
+      <c r="B188" t="str">
+        <v>t4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v/>
+      </c>
+      <c r="B189" t="str">
+        <v>t5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v/>
+      </c>
+      <c r="B190" t="str">
+        <v>t6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v/>
+      </c>
+      <c r="B191" t="str">
+        <v>t7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v/>
+      </c>
+      <c r="B192" t="str">
+        <v>t8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v/>
+      </c>
+      <c r="B193" t="str">
+        <v>t9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Aman1</v>
+      </c>
+      <c r="B194" t="str">
+        <v>t4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v/>
+      </c>
+      <c r="B195" t="str">
+        <v>t5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v/>
+      </c>
+      <c r="B196" t="str">
+        <v>t6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v/>
+      </c>
+      <c r="B197" t="str">
+        <v>t7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v/>
+      </c>
+      <c r="B198" t="str">
+        <v>t8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v/>
+      </c>
+      <c r="B199" t="str">
+        <v>t9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Checkingw</v>
+      </c>
+      <c r="B200" t="str">
+        <v>t6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v/>
+      </c>
+      <c r="B201" t="str">
+        <v>t7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v/>
+      </c>
+      <c r="B202" t="str">
+        <v>t8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v/>
+      </c>
+      <c r="B203" t="str">
+        <v>t9</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v/>
+      </c>
+      <c r="B204" t="str">
+        <v>t10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v/>
+      </c>
+      <c r="B205" t="str">
+        <v>t11</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B139"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B205"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" t="str">
         <v>email</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" t="str">
         <v>Aman</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" t="str">
         <v>saifa@gma.co</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" t="str">
         <v>Saifal</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" t="str">
+        <v>sai@sai.co</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Saifal</v>
+      </c>
+      <c r="B4" t="str">
         <v>saifa@gma.com</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Saif</v>
+      </c>
+      <c r="B5" t="str">
+        <v>saifalcoding@gmail.com</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Raj Kumar</v>
+      </c>
+      <c r="B6" t="str">
+        <v>123@124.com</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Aman 1</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Aman 1@example.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/teams_and_users.xlsx
+++ b/teams_and_users.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B871"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,10 +413,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Saifala</v>
+        <v>Toby Skinner</v>
       </c>
       <c r="B2" t="str">
-        <v>Max Homa</v>
+        <v>Scottie Scheffler</v>
       </c>
     </row>
     <row r="3">
@@ -424,7 +424,7 @@
         <v/>
       </c>
       <c r="B3" t="str">
-        <v>Rasmus Hojgaard</v>
+        <v>Adam Scott</v>
       </c>
     </row>
     <row r="4">
@@ -432,7 +432,7 @@
         <v/>
       </c>
       <c r="B4" t="str">
-        <v>Adam Svensson</v>
+        <v>Max Homa</v>
       </c>
     </row>
     <row r="5">
@@ -440,7 +440,7 @@
         <v/>
       </c>
       <c r="B5" t="str">
-        <v>Lee Hodges</v>
+        <v>Ryan Fox</v>
       </c>
     </row>
     <row r="6">
@@ -448,7 +448,7 @@
         <v/>
       </c>
       <c r="B6" t="str">
-        <v>Jordan Smith</v>
+        <v>Dustin Johnson</v>
       </c>
     </row>
     <row r="7">
@@ -456,15 +456,15 @@
         <v/>
       </c>
       <c r="B7" t="str">
-        <v>Takumi Kanaya</v>
+        <v>Will Zalatoris</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>CheckingBrook</v>
+        <v>dalton</v>
       </c>
       <c r="B8" t="str">
-        <v>Brooks Koepka</v>
+        <v>Bryson DeChambeau</v>
       </c>
     </row>
     <row r="9">
@@ -472,7 +472,7 @@
         <v/>
       </c>
       <c r="B9" t="str">
-        <v>Braden Shattuck</v>
+        <v>Robert MacIntyre</v>
       </c>
     </row>
     <row r="10">
@@ -480,7 +480,7 @@
         <v/>
       </c>
       <c r="B10" t="str">
-        <v>Evan Bowser</v>
+        <v>Cameron Smith</v>
       </c>
     </row>
     <row r="11">
@@ -488,7 +488,7 @@
         <v/>
       </c>
       <c r="B11" t="str">
-        <v>John Daly</v>
+        <v>Hideki Matsuyama</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v/>
       </c>
       <c r="B12" t="str">
-        <v>Wyatt Worthington II</v>
+        <v>Harris English</v>
       </c>
     </row>
     <row r="13">
@@ -504,15 +504,15 @@
         <v/>
       </c>
       <c r="B13" t="str">
-        <v>Jeffrey Kellen</v>
+        <v>Victor Perez</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Br2</v>
+        <v>Tooting tigers</v>
       </c>
       <c r="B14" t="str">
-        <v>Brooks Koepka</v>
+        <v>Ludvig Aberg</v>
       </c>
     </row>
     <row r="15">
@@ -520,7 +520,7 @@
         <v/>
       </c>
       <c r="B15" t="str">
-        <v>Emiliano Grillo</v>
+        <v>Tyrrell Hatton</v>
       </c>
     </row>
     <row r="16">
@@ -528,7 +528,7 @@
         <v/>
       </c>
       <c r="B16" t="str">
-        <v>Rich Beem</v>
+        <v>Adam Scott</v>
       </c>
     </row>
     <row r="17">
@@ -536,7 +536,7 @@
         <v/>
       </c>
       <c r="B17" t="str">
-        <v>Larkin Gross</v>
+        <v>Aaron Rai</v>
       </c>
     </row>
     <row r="18">
@@ -544,7 +544,7 @@
         <v/>
       </c>
       <c r="B18" t="str">
-        <v>Jared Jones</v>
+        <v>Harris English</v>
       </c>
     </row>
     <row r="19">
@@ -552,15 +552,15 @@
         <v/>
       </c>
       <c r="B19" t="str">
-        <v>Matt Dobyns</v>
+        <v>Romain Langasque</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Br3</v>
+        <v>Chris Steele</v>
       </c>
       <c r="B20" t="str">
-        <v>Brooks Koepka</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="21">
@@ -568,7 +568,7 @@
         <v/>
       </c>
       <c r="B21" t="str">
-        <v>Braden Shattuck</v>
+        <v>Tyrrell Hatton</v>
       </c>
     </row>
     <row r="22">
@@ -576,7 +576,7 @@
         <v/>
       </c>
       <c r="B22" t="str">
-        <v>Evan Bowser</v>
+        <v>Shane Lowry</v>
       </c>
     </row>
     <row r="23">
@@ -584,7 +584,7 @@
         <v/>
       </c>
       <c r="B23" t="str">
-        <v>John Daly</v>
+        <v>Aaron Rai</v>
       </c>
     </row>
     <row r="24">
@@ -592,7 +592,7 @@
         <v/>
       </c>
       <c r="B24" t="str">
-        <v>Wyatt Worthington II</v>
+        <v>Alex Noren</v>
       </c>
     </row>
     <row r="25">
@@ -600,15 +600,15 @@
         <v/>
       </c>
       <c r="B25" t="str">
-        <v>Jeffrey Kellen</v>
+        <v>Matteo Manassero</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Br4</v>
+        <v>ReidyGolf</v>
       </c>
       <c r="B26" t="str">
-        <v>Brooks Koepka</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="27">
@@ -616,7 +616,7 @@
         <v/>
       </c>
       <c r="B27" t="str">
-        <v>Braden Shattuck</v>
+        <v>Brooks Koepka</v>
       </c>
     </row>
     <row r="28">
@@ -624,7 +624,7 @@
         <v/>
       </c>
       <c r="B28" t="str">
-        <v>Josh Speight</v>
+        <v>Tony Finau</v>
       </c>
     </row>
     <row r="29">
@@ -632,7 +632,7 @@
         <v/>
       </c>
       <c r="B29" t="str">
-        <v>John Daly</v>
+        <v>Adam Scott</v>
       </c>
     </row>
     <row r="30">
@@ -640,7 +640,7 @@
         <v/>
       </c>
       <c r="B30" t="str">
-        <v>Wyatt Worthington II</v>
+        <v>Alex Noren</v>
       </c>
     </row>
     <row r="31">
@@ -648,15 +648,15 @@
         <v/>
       </c>
       <c r="B31" t="str">
-        <v>Jeffrey Kellen</v>
+        <v>Thorbjorn Olesen</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Br5</v>
+        <v>Barry Winter</v>
       </c>
       <c r="B32" t="str">
-        <v>Brooks Koepka</v>
+        <v>Ludvig Aberg</v>
       </c>
     </row>
     <row r="33">
@@ -664,7 +664,7 @@
         <v/>
       </c>
       <c r="B33" t="str">
-        <v>Braden Shattuck</v>
+        <v>Collin Morikawa</v>
       </c>
     </row>
     <row r="34">
@@ -672,7 +672,7 @@
         <v/>
       </c>
       <c r="B34" t="str">
-        <v>Josh Speight</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="35">
@@ -680,7 +680,7 @@
         <v/>
       </c>
       <c r="B35" t="str">
-        <v>John Daly</v>
+        <v>Matthew Jordan</v>
       </c>
     </row>
     <row r="36">
@@ -688,7 +688,7 @@
         <v/>
       </c>
       <c r="B36" t="str">
-        <v>Wyatt Worthington II</v>
+        <v>Ewen Ferguson</v>
       </c>
     </row>
     <row r="37">
@@ -696,15 +696,15 @@
         <v/>
       </c>
       <c r="B37" t="str">
-        <v>Jeffrey Kellen</v>
+        <v>Jordan Smith</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Br3</v>
+        <v>Fleetwood</v>
       </c>
       <c r="B38" t="str">
-        <v>Jon Rahm</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="39">
@@ -712,7 +712,7 @@
         <v/>
       </c>
       <c r="B39" t="str">
-        <v>Braden Shattuck</v>
+        <v>Robert MacIntyre</v>
       </c>
     </row>
     <row r="40">
@@ -720,7 +720,7 @@
         <v/>
       </c>
       <c r="B40" t="str">
-        <v>Evan Bowser</v>
+        <v>Cameron Young</v>
       </c>
     </row>
     <row r="41">
@@ -728,7 +728,7 @@
         <v/>
       </c>
       <c r="B41" t="str">
-        <v>Wyatt Worthington II</v>
+        <v>Brian Harman</v>
       </c>
     </row>
     <row r="42">
@@ -736,7 +736,7 @@
         <v/>
       </c>
       <c r="B42" t="str">
-        <v>Jeffrey Kellen</v>
+        <v>Corey Conners</v>
       </c>
     </row>
     <row r="43">
@@ -744,15 +744,15 @@
         <v/>
       </c>
       <c r="B43" t="str">
-        <v>saifal aman</v>
+        <v>Nicolai Hojgaard</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Br4</v>
+        <v>Stuart Field 1</v>
       </c>
       <c r="B44" t="str">
-        <v>Jon Rahm</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="45">
@@ -760,7 +760,7 @@
         <v/>
       </c>
       <c r="B45" t="str">
-        <v>Nick Dunlap</v>
+        <v>Viktor Hovland</v>
       </c>
     </row>
     <row r="46">
@@ -768,7 +768,7 @@
         <v/>
       </c>
       <c r="B46" t="str">
-        <v>Kyoung-Hoon Lee</v>
+        <v>Tyrrell Hatton</v>
       </c>
     </row>
     <row r="47">
@@ -776,7 +776,7 @@
         <v/>
       </c>
       <c r="B47" t="str">
-        <v>Mark Hubbard</v>
+        <v>Min Woo Lee</v>
       </c>
     </row>
     <row r="48">
@@ -784,7 +784,7 @@
         <v/>
       </c>
       <c r="B48" t="str">
-        <v>Phil Mickelson</v>
+        <v>Shubhankar Sharma</v>
       </c>
     </row>
     <row r="49">
@@ -792,15 +792,15 @@
         <v/>
       </c>
       <c r="B49" t="str">
-        <v>Seonghyeon Kim</v>
+        <v>Matthew Southgate</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Br5</v>
+        <v>Stuart Field 2</v>
       </c>
       <c r="B50" t="str">
-        <v>Brooks Koepka</v>
+        <v>Bryson DeChambeau</v>
       </c>
     </row>
     <row r="51">
@@ -808,7 +808,7 @@
         <v/>
       </c>
       <c r="B51" t="str">
-        <v>Mark Hubbard</v>
+        <v>Collin Morikawa</v>
       </c>
     </row>
     <row r="52">
@@ -816,7 +816,7 @@
         <v/>
       </c>
       <c r="B52" t="str">
-        <v>Phil Mickelson</v>
+        <v>Alex Noren</v>
       </c>
     </row>
     <row r="53">
@@ -824,7 +824,7 @@
         <v/>
       </c>
       <c r="B53" t="str">
-        <v>Seonghyeon Kim</v>
+        <v>Ryan Fox</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v/>
       </c>
       <c r="B54" t="str">
-        <v>Doug Ghim</v>
+        <v>Byeong-Hun An</v>
       </c>
     </row>
     <row r="55">
@@ -840,15 +840,15 @@
         <v/>
       </c>
       <c r="B55" t="str">
-        <v>Ryo Hisatsune</v>
+        <v>Matthew Southgate</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Checking1212</v>
+        <v>Going Down Swinging</v>
       </c>
       <c r="B56" t="str">
-        <v>Adrian Otaegui</v>
+        <v>Xander Schauffele</v>
       </c>
     </row>
     <row r="57">
@@ -856,7 +856,7 @@
         <v/>
       </c>
       <c r="B57" t="str">
-        <v>Emiliano Grillo</v>
+        <v>Brooks Koepka</v>
       </c>
     </row>
     <row r="58">
@@ -864,7 +864,7 @@
         <v/>
       </c>
       <c r="B58" t="str">
-        <v>Rasmus Hojgaard</v>
+        <v>Tom Kim</v>
       </c>
     </row>
     <row r="59">
@@ -872,7 +872,7 @@
         <v/>
       </c>
       <c r="B59" t="str">
-        <v>Adam Svensson</v>
+        <v>Wyndham Clark</v>
       </c>
     </row>
     <row r="60">
@@ -880,7 +880,7 @@
         <v/>
       </c>
       <c r="B60" t="str">
-        <v>Lee Hodges</v>
+        <v>Si Woo Kim</v>
       </c>
     </row>
     <row r="61">
@@ -888,15 +888,15 @@
         <v/>
       </c>
       <c r="B61" t="str">
-        <v>Jordan Smith</v>
+        <v>Francesco Molinari</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>MySelf</v>
+        <v>Stevie B</v>
       </c>
       <c r="B62" t="str">
-        <v>Adam Schenk</v>
+        <v>Shane Lowry</v>
       </c>
     </row>
     <row r="63">
@@ -904,7 +904,7 @@
         <v/>
       </c>
       <c r="B63" t="str">
-        <v>Taylor Pendrith</v>
+        <v>Patrick Cantlay</v>
       </c>
     </row>
     <row r="64">
@@ -912,7 +912,7 @@
         <v/>
       </c>
       <c r="B64" t="str">
-        <v>Thomas Detry</v>
+        <v>Tony Finau</v>
       </c>
     </row>
     <row r="65">
@@ -920,7 +920,7 @@
         <v/>
       </c>
       <c r="B65" t="str">
-        <v>Tom Hoge</v>
+        <v>Adam Scott</v>
       </c>
     </row>
     <row r="66">
@@ -928,7 +928,7 @@
         <v/>
       </c>
       <c r="B66" t="str">
-        <v>Adam Hadwin</v>
+        <v>Aaron Rai</v>
       </c>
     </row>
     <row r="67">
@@ -936,15 +936,15 @@
         <v/>
       </c>
       <c r="B67" t="str">
-        <v>Taylor Moore</v>
+        <v>Wyndham Clark</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Checkingaaa</v>
+        <v>Chili Dipperz 1</v>
       </c>
       <c r="B68" t="str">
-        <v>Sahith Theegala</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="69">
@@ -952,7 +952,7 @@
         <v/>
       </c>
       <c r="B69" t="str">
-        <v>Tony Finau</v>
+        <v>Tyrrell Hatton</v>
       </c>
     </row>
     <row r="70">
@@ -960,7 +960,7 @@
         <v/>
       </c>
       <c r="B70" t="str">
-        <v>Sam Burns</v>
+        <v>Hideki Matsuyama</v>
       </c>
     </row>
     <row r="71">
@@ -968,7 +968,7 @@
         <v/>
       </c>
       <c r="B71" t="str">
-        <v>Min Woo Lee</v>
+        <v>Tony Finau</v>
       </c>
     </row>
     <row r="72">
@@ -976,7 +976,7 @@
         <v/>
       </c>
       <c r="B72" t="str">
-        <v>Corey Conners</v>
+        <v>Adam Scott</v>
       </c>
     </row>
     <row r="73">
@@ -984,15 +984,15 @@
         <v/>
       </c>
       <c r="B73" t="str">
-        <v>Russell Henley</v>
+        <v>Daniel Brown</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>asss</v>
+        <v>Chili Dipperz 2</v>
       </c>
       <c r="B74" t="str">
-        <v>Nick Dunlap</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="75">
@@ -1000,7 +1000,7 @@
         <v/>
       </c>
       <c r="B75" t="str">
-        <v>Kyoung-Hoon Lee</v>
+        <v>Tyrrell Hatton</v>
       </c>
     </row>
     <row r="76">
@@ -1008,7 +1008,7 @@
         <v/>
       </c>
       <c r="B76" t="str">
-        <v>Mark Hubbard</v>
+        <v>Tom Kim</v>
       </c>
     </row>
     <row r="77">
@@ -1016,7 +1016,7 @@
         <v/>
       </c>
       <c r="B77" t="str">
-        <v>Phil Mickelson</v>
+        <v>Adam Scott</v>
       </c>
     </row>
     <row r="78">
@@ -1024,7 +1024,7 @@
         <v/>
       </c>
       <c r="B78" t="str">
-        <v>Seonghyeon Kim</v>
+        <v>Nicolai Hojgaard</v>
       </c>
     </row>
     <row r="79">
@@ -1032,15 +1032,15 @@
         <v/>
       </c>
       <c r="B79" t="str">
-        <v>Doug Ghim</v>
+        <v>Adam Hadwin</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>s1211</v>
+        <v>Chilli Dipperz 3</v>
       </c>
       <c r="B80" t="str">
-        <v>Brendon Todd</v>
+        <v>Viktor Hovland</v>
       </c>
     </row>
     <row r="81">
@@ -1048,7 +1048,7 @@
         <v/>
       </c>
       <c r="B81" t="str">
-        <v>Nick Dunlap</v>
+        <v>Hideki Matsuyama</v>
       </c>
     </row>
     <row r="82">
@@ -1056,7 +1056,7 @@
         <v/>
       </c>
       <c r="B82" t="str">
-        <v>Kyoung-Hoon Lee</v>
+        <v>Patrick Cantlay</v>
       </c>
     </row>
     <row r="83">
@@ -1064,7 +1064,7 @@
         <v/>
       </c>
       <c r="B83" t="str">
-        <v>Mark Hubbard</v>
+        <v>Tom Kim</v>
       </c>
     </row>
     <row r="84">
@@ -1072,7 +1072,7 @@
         <v/>
       </c>
       <c r="B84" t="str">
-        <v>Phil Mickelson</v>
+        <v>Adam Scott</v>
       </c>
     </row>
     <row r="85">
@@ -1080,15 +1080,15 @@
         <v/>
       </c>
       <c r="B85" t="str">
-        <v>Seonghyeon Kim</v>
+        <v>Adam Hadwin</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>saaaa123</v>
+        <v>McCabe</v>
       </c>
       <c r="B86" t="str">
-        <v>Brendon Todd</v>
+        <v>Hideki Matsuyama</v>
       </c>
     </row>
     <row r="87">
@@ -1096,7 +1096,7 @@
         <v/>
       </c>
       <c r="B87" t="str">
-        <v>Nick Dunlap</v>
+        <v>Patrick Cantlay</v>
       </c>
     </row>
     <row r="88">
@@ -1104,7 +1104,7 @@
         <v/>
       </c>
       <c r="B88" t="str">
-        <v>Kyoung-Hoon Lee</v>
+        <v>Sahith Theegala</v>
       </c>
     </row>
     <row r="89">
@@ -1112,7 +1112,7 @@
         <v/>
       </c>
       <c r="B89" t="str">
-        <v>Mark Hubbard</v>
+        <v>Jordan Spieth</v>
       </c>
     </row>
     <row r="90">
@@ -1120,7 +1120,7 @@
         <v/>
       </c>
       <c r="B90" t="str">
-        <v>Phil Mickelson</v>
+        <v>Adam Scott</v>
       </c>
     </row>
     <row r="91">
@@ -1128,15 +1128,15 @@
         <v/>
       </c>
       <c r="B91" t="str">
-        <v>Seonghyeon Kim</v>
+        <v>Alex Noren</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>111</v>
+        <v>CHeck sss</v>
       </c>
       <c r="B92" t="str">
-        <v>Alex Noren</v>
+        <v>Adam Scott</v>
       </c>
     </row>
     <row r="93">
@@ -1144,7 +1144,7 @@
         <v/>
       </c>
       <c r="B93" t="str">
-        <v>Denny McCarthy</v>
+        <v>Aaron Rai</v>
       </c>
     </row>
     <row r="94">
@@ -1152,7 +1152,7 @@
         <v/>
       </c>
       <c r="B94" t="str">
-        <v>Rickie Fowler</v>
+        <v>Adam Schenk</v>
       </c>
     </row>
     <row r="95">
@@ -1160,7 +1160,7 @@
         <v/>
       </c>
       <c r="B95" t="str">
-        <v>Dean Burmester</v>
+        <v>Abraham Ancer</v>
       </c>
     </row>
     <row r="96">
@@ -1168,7 +1168,7 @@
         <v/>
       </c>
       <c r="B96" t="str">
-        <v>Patrick Reed</v>
+        <v>Adrian Meronk</v>
       </c>
     </row>
     <row r="97">
@@ -1176,15 +1176,15 @@
         <v/>
       </c>
       <c r="B97" t="str">
-        <v>Christiaan Bezuidenhout</v>
+        <v>Adam Hadwin</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>123</v>
+        <v>Nothing Fancy</v>
       </c>
       <c r="B98" t="str">
-        <v>Keith Mitchell</v>
+        <v>Ludvig Aberg</v>
       </c>
     </row>
     <row r="99">
@@ -1192,7 +1192,7 @@
         <v/>
       </c>
       <c r="B99" t="str">
-        <v>Cam Davis</v>
+        <v>Bryson DeChambeau</v>
       </c>
     </row>
     <row r="100">
@@ -1200,7 +1200,7 @@
         <v/>
       </c>
       <c r="B100" t="str">
-        <v>J.T Poston</v>
+        <v>Collin Morikawa</v>
       </c>
     </row>
     <row r="101">
@@ -1208,7 +1208,7 @@
         <v/>
       </c>
       <c r="B101" t="str">
-        <v>Aaron Rai</v>
+        <v>Gordon Sargent</v>
       </c>
     </row>
     <row r="102">
@@ -1216,7 +1216,7 @@
         <v/>
       </c>
       <c r="B102" t="str">
-        <v>Chris Kirk</v>
+        <v>Dominic Clemons</v>
       </c>
     </row>
     <row r="103">
@@ -1224,12 +1224,12 @@
         <v/>
       </c>
       <c r="B103" t="str">
-        <v>Mackenzie Hughes</v>
+        <v>Adrian Meronk</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>121</v>
+        <v>Stewart Copeland 1</v>
       </c>
       <c r="B104" t="str">
         <v>Xander Schauffele</v>
@@ -1240,7 +1240,7 @@
         <v/>
       </c>
       <c r="B105" t="str">
-        <v>Matt Wallace</v>
+        <v>Tom Kim</v>
       </c>
     </row>
     <row r="106">
@@ -1248,7 +1248,7 @@
         <v/>
       </c>
       <c r="B106" t="str">
-        <v>Brendon Todd</v>
+        <v>Brian Harman</v>
       </c>
     </row>
     <row r="107">
@@ -1256,7 +1256,7 @@
         <v/>
       </c>
       <c r="B107" t="str">
-        <v>Keita Nakajima</v>
+        <v>Aaron Rai</v>
       </c>
     </row>
     <row r="108">
@@ -1264,7 +1264,7 @@
         <v/>
       </c>
       <c r="B108" t="str">
-        <v>Nick Dunlap</v>
+        <v>Wyndham Clark</v>
       </c>
     </row>
     <row r="109">
@@ -1272,15 +1272,15 @@
         <v/>
       </c>
       <c r="B109" t="str">
-        <v>Kyoung-Hoon Lee</v>
+        <v>Victor Perez</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>11</v>
+        <v xml:space="preserve">John Gutkin </v>
       </c>
       <c r="B110" t="str">
-        <v>Nick Taylor</v>
+        <v>Bryson DeChambeau</v>
       </c>
     </row>
     <row r="111">
@@ -1288,7 +1288,7 @@
         <v/>
       </c>
       <c r="B111" t="str">
-        <v>Patrick Rodgers</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="112">
@@ -1296,7 +1296,7 @@
         <v/>
       </c>
       <c r="B112" t="str">
-        <v>Thorbjorn Olesen</v>
+        <v>Tony Finau</v>
       </c>
     </row>
     <row r="113">
@@ -1304,7 +1304,7 @@
         <v/>
       </c>
       <c r="B113" t="str">
-        <v>Austin Eckroat</v>
+        <v>Ryan Fox</v>
       </c>
     </row>
     <row r="114">
@@ -1312,7 +1312,7 @@
         <v/>
       </c>
       <c r="B114" t="str">
-        <v>Victor Perez</v>
+        <v>Jason Day</v>
       </c>
     </row>
     <row r="115">
@@ -1320,15 +1320,15 @@
         <v/>
       </c>
       <c r="B115" t="str">
-        <v>saifal aman</v>
+        <v>Tom McKibbin</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Checking</v>
+        <v>Ms Cutie 2</v>
       </c>
       <c r="B116" t="str">
-        <v>Joaquin Niemann</v>
+        <v>Xander Schauffele</v>
       </c>
     </row>
     <row r="117">
@@ -1336,7 +1336,7 @@
         <v/>
       </c>
       <c r="B117" t="str">
-        <v>Justin Thomas</v>
+        <v>Collin Morikawa</v>
       </c>
     </row>
     <row r="118">
@@ -1344,7 +1344,7 @@
         <v/>
       </c>
       <c r="B118" t="str">
-        <v>Viktor Hovland</v>
+        <v>Jon Rahm</v>
       </c>
     </row>
     <row r="119">
@@ -1352,7 +1352,7 @@
         <v/>
       </c>
       <c r="B119" t="str">
-        <v>Wyndham Clark</v>
+        <v>Tony Finau</v>
       </c>
     </row>
     <row r="120">
@@ -1360,7 +1360,7 @@
         <v/>
       </c>
       <c r="B120" t="str">
-        <v>Tyrrell Hatton</v>
+        <v>Justin Leonard</v>
       </c>
     </row>
     <row r="121">
@@ -1368,15 +1368,15 @@
         <v/>
       </c>
       <c r="B121" t="str">
-        <v>Larkin Gross</v>
+        <v>Todd Hamilton</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>s</v>
+        <v>Ms Cutie 3</v>
       </c>
       <c r="B122" t="str">
-        <v>Matt Wallace</v>
+        <v>Scottie Scheffler</v>
       </c>
     </row>
     <row r="123">
@@ -1384,7 +1384,7 @@
         <v/>
       </c>
       <c r="B123" t="str">
-        <v>Brendon Todd</v>
+        <v>Rory McIlroy</v>
       </c>
     </row>
     <row r="124">
@@ -1392,7 +1392,7 @@
         <v/>
       </c>
       <c r="B124" t="str">
-        <v>Keita Nakajima</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="125">
@@ -1400,7 +1400,7 @@
         <v/>
       </c>
       <c r="B125" t="str">
-        <v>Doug Ghim</v>
+        <v>John Daly</v>
       </c>
     </row>
     <row r="126">
@@ -1408,7 +1408,7 @@
         <v/>
       </c>
       <c r="B126" t="str">
-        <v>Ryo Hisatsune</v>
+        <v>Todd Hamilton</v>
       </c>
     </row>
     <row r="127">
@@ -1416,15 +1416,15 @@
         <v/>
       </c>
       <c r="B127" t="str">
-        <v>David Puig</v>
+        <v>Darren Clarke</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Checking121</v>
+        <v>Mick Drain (1)</v>
       </c>
       <c r="B128" t="str">
-        <v>Rickie Fowler</v>
+        <v>Rory McIlroy</v>
       </c>
     </row>
     <row r="129">
@@ -1432,7 +1432,7 @@
         <v/>
       </c>
       <c r="B129" t="str">
-        <v>Dean Burmester</v>
+        <v>Xander Schauffele</v>
       </c>
     </row>
     <row r="130">
@@ -1440,7 +1440,7 @@
         <v/>
       </c>
       <c r="B130" t="str">
-        <v>Patrick Reed</v>
+        <v>Alex Noren</v>
       </c>
     </row>
     <row r="131">
@@ -1448,7 +1448,7 @@
         <v/>
       </c>
       <c r="B131" t="str">
-        <v>Christiaan Bezuidenhout</v>
+        <v>Corey Conners</v>
       </c>
     </row>
     <row r="132">
@@ -1456,7 +1456,7 @@
         <v/>
       </c>
       <c r="B132" t="str">
-        <v>Billy Horschel</v>
+        <v>Shubhankar Sharma</v>
       </c>
     </row>
     <row r="133">
@@ -1464,15 +1464,15 @@
         <v/>
       </c>
       <c r="B133" t="str">
-        <v>Harris English</v>
+        <v>Victor Perez</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Checking11111</v>
+        <v>Mick Drain(2)</v>
       </c>
       <c r="B134" t="str">
-        <v>t1</v>
+        <v>Scottie Scheffler</v>
       </c>
     </row>
     <row r="135">
@@ -1480,7 +1480,7 @@
         <v/>
       </c>
       <c r="B135" t="str">
-        <v>t2</v>
+        <v>Tyrrell Hatton</v>
       </c>
     </row>
     <row r="136">
@@ -1488,7 +1488,7 @@
         <v/>
       </c>
       <c r="B136" t="str">
-        <v>t3</v>
+        <v>Max Homa</v>
       </c>
     </row>
     <row r="137">
@@ -1496,7 +1496,7 @@
         <v/>
       </c>
       <c r="B137" t="str">
-        <v>t4</v>
+        <v>Justin Rose</v>
       </c>
     </row>
     <row r="138">
@@ -1504,7 +1504,7 @@
         <v/>
       </c>
       <c r="B138" t="str">
-        <v>t5</v>
+        <v>Francesco Molinari</v>
       </c>
     </row>
     <row r="139">
@@ -1512,15 +1512,15 @@
         <v/>
       </c>
       <c r="B139" t="str">
-        <v>t6</v>
+        <v>Keegan Bradley</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Checking`</v>
+        <v>The Open Dream</v>
       </c>
       <c r="B140" t="str">
-        <v>t6</v>
+        <v>Collin Morikawa</v>
       </c>
     </row>
     <row r="141">
@@ -1528,7 +1528,7 @@
         <v/>
       </c>
       <c r="B141" t="str">
-        <v>t7</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="142">
@@ -1536,7 +1536,7 @@
         <v/>
       </c>
       <c r="B142" t="str">
-        <v>t8</v>
+        <v>Min Woo Lee</v>
       </c>
     </row>
     <row r="143">
@@ -1544,7 +1544,7 @@
         <v/>
       </c>
       <c r="B143" t="str">
-        <v>t9</v>
+        <v>Aaron Rai</v>
       </c>
     </row>
     <row r="144">
@@ -1552,7 +1552,7 @@
         <v/>
       </c>
       <c r="B144" t="str">
-        <v>t10</v>
+        <v>Sepp Straka</v>
       </c>
     </row>
     <row r="145">
@@ -1560,15 +1560,15 @@
         <v/>
       </c>
       <c r="B145" t="str">
-        <v>t11</v>
+        <v>Victor Perez</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Saifal</v>
+        <v>Tom Welsh Open 24</v>
       </c>
       <c r="B146" t="str">
-        <v>t1</v>
+        <v>Matt Fitzpatrick</v>
       </c>
     </row>
     <row r="147">
@@ -1576,7 +1576,7 @@
         <v/>
       </c>
       <c r="B147" t="str">
-        <v>t10</v>
+        <v>Cameron Young</v>
       </c>
     </row>
     <row r="148">
@@ -1584,7 +1584,7 @@
         <v/>
       </c>
       <c r="B148" t="str">
-        <v>t11</v>
+        <v>Justin Thomas</v>
       </c>
     </row>
     <row r="149">
@@ -1592,7 +1592,7 @@
         <v/>
       </c>
       <c r="B149" t="str">
-        <v>Saif</v>
+        <v>Joaquin Niemann</v>
       </c>
     </row>
     <row r="150">
@@ -1600,7 +1600,7 @@
         <v/>
       </c>
       <c r="B150" t="str">
-        <v>Saifal</v>
+        <v>Sahith Theegala</v>
       </c>
     </row>
     <row r="151">
@@ -1608,15 +1608,15 @@
         <v/>
       </c>
       <c r="B151" t="str">
-        <v>Aman</v>
+        <v>Jordan Spieth</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Checking1231</v>
+        <v>Luke Howard 1</v>
       </c>
       <c r="B152" t="str">
-        <v>t6</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="153">
@@ -1624,7 +1624,7 @@
         <v/>
       </c>
       <c r="B153" t="str">
-        <v>t7</v>
+        <v>Tyrrell Hatton</v>
       </c>
     </row>
     <row r="154">
@@ -1632,7 +1632,7 @@
         <v/>
       </c>
       <c r="B154" t="str">
-        <v>t8</v>
+        <v>Shane Lowry</v>
       </c>
     </row>
     <row r="155">
@@ -1640,7 +1640,7 @@
         <v/>
       </c>
       <c r="B155" t="str">
-        <v>t9</v>
+        <v>Aaron Rai</v>
       </c>
     </row>
     <row r="156">
@@ -1648,7 +1648,7 @@
         <v/>
       </c>
       <c r="B156" t="str">
-        <v>t10</v>
+        <v>Louis Oosthuizen</v>
       </c>
     </row>
     <row r="157">
@@ -1656,15 +1656,15 @@
         <v/>
       </c>
       <c r="B157" t="str">
-        <v>t11</v>
+        <v>Brendon Todd</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>saif</v>
+        <v>Luke Howard 2</v>
       </c>
       <c r="B158" t="str">
-        <v>Jon Rahm</v>
+        <v>Rory McIlroy</v>
       </c>
     </row>
     <row r="159">
@@ -1672,7 +1672,7 @@
         <v/>
       </c>
       <c r="B159" t="str">
-        <v>Collin Morikawa</v>
+        <v>Jon Rahm</v>
       </c>
     </row>
     <row r="160">
@@ -1680,7 +1680,7 @@
         <v/>
       </c>
       <c r="B160" t="str">
-        <v>Bryson DeChambeau</v>
+        <v>Patrick Cantlay</v>
       </c>
     </row>
     <row r="161">
@@ -1688,7 +1688,7 @@
         <v/>
       </c>
       <c r="B161" t="str">
-        <v>Andrew Putnam</v>
+        <v>Brian Harman</v>
       </c>
     </row>
     <row r="162">
@@ -1696,7 +1696,7 @@
         <v/>
       </c>
       <c r="B162" t="str">
-        <v>Christopher Gotterup</v>
+        <v>Shubhankar Sharma</v>
       </c>
     </row>
     <row r="163">
@@ -1704,15 +1704,15 @@
         <v/>
       </c>
       <c r="B163" t="str">
-        <v>Matt Wallace</v>
+        <v>Romain Langasque</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Checking12</v>
+        <v>Lewin - Open</v>
       </c>
       <c r="B164" t="str">
-        <v>t6</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="165">
@@ -1720,7 +1720,7 @@
         <v/>
       </c>
       <c r="B165" t="str">
-        <v>t7</v>
+        <v>Shane Lowry</v>
       </c>
     </row>
     <row r="166">
@@ -1728,7 +1728,7 @@
         <v/>
       </c>
       <c r="B166" t="str">
-        <v>t8</v>
+        <v>Robert MacIntyre</v>
       </c>
     </row>
     <row r="167">
@@ -1736,7 +1736,7 @@
         <v/>
       </c>
       <c r="B167" t="str">
-        <v>t9</v>
+        <v>Cameron Smith</v>
       </c>
     </row>
     <row r="168">
@@ -1744,7 +1744,7 @@
         <v/>
       </c>
       <c r="B168" t="str">
-        <v>t10</v>
+        <v>Nicolai Hojgaard</v>
       </c>
     </row>
     <row r="169">
@@ -1752,15 +1752,15 @@
         <v/>
       </c>
       <c r="B169" t="str">
-        <v>t11</v>
+        <v>Jordan Smith</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Checking</v>
+        <v>B Davidson 1</v>
       </c>
       <c r="B170" t="str">
-        <v>t1</v>
+        <v>Xander Schauffele</v>
       </c>
     </row>
     <row r="171">
@@ -1768,7 +1768,7 @@
         <v/>
       </c>
       <c r="B171" t="str">
-        <v>t2</v>
+        <v>Robert MacIntyre</v>
       </c>
     </row>
     <row r="172">
@@ -1776,7 +1776,7 @@
         <v/>
       </c>
       <c r="B172" t="str">
-        <v>t3</v>
+        <v>Tony Finau</v>
       </c>
     </row>
     <row r="173">
@@ -1784,7 +1784,7 @@
         <v/>
       </c>
       <c r="B173" t="str">
-        <v>t4</v>
+        <v>Corey Conners</v>
       </c>
     </row>
     <row r="174">
@@ -1792,7 +1792,7 @@
         <v/>
       </c>
       <c r="B174" t="str">
-        <v>t5</v>
+        <v>Nicolai Hojgaard</v>
       </c>
     </row>
     <row r="175">
@@ -1800,15 +1800,15 @@
         <v/>
       </c>
       <c r="B175" t="str">
-        <v>Saif</v>
+        <v>Keegan Bradley</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Checking1213</v>
+        <v>B Davidson 2</v>
       </c>
       <c r="B176" t="str">
-        <v>t1</v>
+        <v>Rory McIlroy</v>
       </c>
     </row>
     <row r="177">
@@ -1816,7 +1816,7 @@
         <v/>
       </c>
       <c r="B177" t="str">
-        <v>t2</v>
+        <v>Ludvig Aberg</v>
       </c>
     </row>
     <row r="178">
@@ -1824,7 +1824,7 @@
         <v/>
       </c>
       <c r="B178" t="str">
-        <v>t10</v>
+        <v>Alex Noren</v>
       </c>
     </row>
     <row r="179">
@@ -1832,7 +1832,7 @@
         <v/>
       </c>
       <c r="B179" t="str">
-        <v>t11</v>
+        <v>Matthieu Pavon</v>
       </c>
     </row>
     <row r="180">
@@ -1840,7 +1840,7 @@
         <v/>
       </c>
       <c r="B180" t="str">
-        <v>Saif</v>
+        <v>Matt Wallace</v>
       </c>
     </row>
     <row r="181">
@@ -1848,15 +1848,15 @@
         <v/>
       </c>
       <c r="B181" t="str">
-        <v>Saifal</v>
+        <v>Jordan Smith</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>12</v>
+        <v>B Davidson 3</v>
       </c>
       <c r="B182" t="str">
-        <v>t3</v>
+        <v>Jon Rahm</v>
       </c>
     </row>
     <row r="183">
@@ -1864,7 +1864,7 @@
         <v/>
       </c>
       <c r="B183" t="str">
-        <v>t4</v>
+        <v>Viktor Hovland</v>
       </c>
     </row>
     <row r="184">
@@ -1872,7 +1872,7 @@
         <v/>
       </c>
       <c r="B184" t="str">
-        <v>t5</v>
+        <v>Min Woo Lee</v>
       </c>
     </row>
     <row r="185">
@@ -1880,7 +1880,7 @@
         <v/>
       </c>
       <c r="B185" t="str">
-        <v>t6</v>
+        <v>Adam Scott</v>
       </c>
     </row>
     <row r="186">
@@ -1888,7 +1888,7 @@
         <v/>
       </c>
       <c r="B186" t="str">
-        <v>t8</v>
+        <v>Ryan Fox</v>
       </c>
     </row>
     <row r="187">
@@ -1896,15 +1896,15 @@
         <v/>
       </c>
       <c r="B187" t="str">
-        <v>t9</v>
+        <v>Russell Henley</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Checking11</v>
+        <v>D Doherty 1</v>
       </c>
       <c r="B188" t="str">
-        <v>t4</v>
+        <v>Rory McIlroy</v>
       </c>
     </row>
     <row r="189">
@@ -1912,7 +1912,7 @@
         <v/>
       </c>
       <c r="B189" t="str">
-        <v>t5</v>
+        <v>Tyrrell Hatton</v>
       </c>
     </row>
     <row r="190">
@@ -1920,7 +1920,7 @@
         <v/>
       </c>
       <c r="B190" t="str">
-        <v>t6</v>
+        <v>Cameron Smith</v>
       </c>
     </row>
     <row r="191">
@@ -1928,7 +1928,7 @@
         <v/>
       </c>
       <c r="B191" t="str">
-        <v>t7</v>
+        <v>Dustin Johnson</v>
       </c>
     </row>
     <row r="192">
@@ -1936,7 +1936,7 @@
         <v/>
       </c>
       <c r="B192" t="str">
-        <v>t8</v>
+        <v>Phil Mickelson</v>
       </c>
     </row>
     <row r="193">
@@ -1944,15 +1944,15 @@
         <v/>
       </c>
       <c r="B193" t="str">
-        <v>t9</v>
+        <v>Keegan Bradley</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Aman1</v>
+        <v>Bakey 1</v>
       </c>
       <c r="B194" t="str">
-        <v>t4</v>
+        <v>Tommy Fleetwood</v>
       </c>
     </row>
     <row r="195">
@@ -1960,7 +1960,7 @@
         <v/>
       </c>
       <c r="B195" t="str">
-        <v>t5</v>
+        <v>Robert MacIntyre</v>
       </c>
     </row>
     <row r="196">
@@ -1968,7 +1968,7 @@
         <v/>
       </c>
       <c r="B196" t="str">
-        <v>t6</v>
+        <v>Tom Kim</v>
       </c>
     </row>
     <row r="197">
@@ -1976,7 +1976,7 @@
         <v/>
       </c>
       <c r="B197" t="str">
-        <v>t7</v>
+        <v>Tony Finau</v>
       </c>
     </row>
     <row r="198">
@@ -1984,7 +1984,7 @@
         <v/>
       </c>
       <c r="B198" t="str">
-        <v>t8</v>
+        <v>Aaron Rai</v>
       </c>
     </row>
     <row r="199">
@@ -1992,15 +1992,15 @@
         <v/>
       </c>
       <c r="B199" t="str">
-        <v>t9</v>
+        <v>Matt Wallace</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Checkingw</v>
+        <v>Bakey 2</v>
       </c>
       <c r="B200" t="str">
-        <v>t6</v>
+        <v>Tyrrell Hatton</v>
       </c>
     </row>
     <row r="201">
@@ -2008,7 +2008,7 @@
         <v/>
       </c>
       <c r="B201" t="str">
-        <v>t7</v>
+        <v>Shane Lowry</v>
       </c>
     </row>
     <row r="202">
@@ -2016,7 +2016,7 @@
         <v/>
       </c>
       <c r="B202" t="str">
-        <v>t8</v>
+        <v>Patrick Cantlay</v>
       </c>
     </row>
     <row r="203">
@@ -2024,7 +2024,7 @@
         <v/>
       </c>
       <c r="B203" t="str">
-        <v>t9</v>
+        <v>Adam Scott</v>
       </c>
     </row>
     <row r="204">
@@ -2032,7 +2032,7 @@
         <v/>
       </c>
       <c r="B204" t="str">
-        <v>t10</v>
+        <v>Max Homa</v>
       </c>
     </row>
     <row r="205">
@@ -2040,19 +2040,5347 @@
         <v/>
       </c>
       <c r="B205" t="str">
-        <v>t11</v>
+        <v>Nicolai Hojgaard</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Bakey 3</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v/>
+      </c>
+      <c r="B207" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v/>
+      </c>
+      <c r="B208" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v/>
+      </c>
+      <c r="B209" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v/>
+      </c>
+      <c r="B210" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v/>
+      </c>
+      <c r="B211" t="str">
+        <v>Max Homa</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Victoria 1</v>
+      </c>
+      <c r="B212" t="str">
+        <v>Viktor Hovland</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v/>
+      </c>
+      <c r="B213" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v/>
+      </c>
+      <c r="B214" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v/>
+      </c>
+      <c r="B215" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v/>
+      </c>
+      <c r="B216" t="str">
+        <v>Sepp Straka</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v/>
+      </c>
+      <c r="B217" t="str">
+        <v>Dean Burmester</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Victoria 7</v>
+      </c>
+      <c r="B218" t="str">
+        <v>Xander Schauffele</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v/>
+      </c>
+      <c r="B219" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v/>
+      </c>
+      <c r="B220" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v/>
+      </c>
+      <c r="B221" t="str">
+        <v>Justin Rose</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v/>
+      </c>
+      <c r="B222" t="str">
+        <v>Nicolai Hojgaard</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v/>
+      </c>
+      <c r="B223" t="str">
+        <v>Henrik Stenson</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Greggs 1</v>
+      </c>
+      <c r="B224" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v/>
+      </c>
+      <c r="B225" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v/>
+      </c>
+      <c r="B226" t="str">
+        <v>Matt Fitzpatrick</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v/>
+      </c>
+      <c r="B227" t="str">
+        <v>Sungjae Im</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v/>
+      </c>
+      <c r="B228" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v/>
+      </c>
+      <c r="B229" t="str">
+        <v>Tom McKibbin</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Lambo 1</v>
+      </c>
+      <c r="B230" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v/>
+      </c>
+      <c r="B231" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v/>
+      </c>
+      <c r="B232" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v/>
+      </c>
+      <c r="B233" t="str">
+        <v>Max Homa</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v/>
+      </c>
+      <c r="B234" t="str">
+        <v>Matt Wallace</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v/>
+      </c>
+      <c r="B235" t="str">
+        <v>Adrian Meronk</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Danny Wilson</v>
+      </c>
+      <c r="B236" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v/>
+      </c>
+      <c r="B237" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v/>
+      </c>
+      <c r="B238" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v/>
+      </c>
+      <c r="B239" t="str">
+        <v>Nicolai Hojgaard</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v/>
+      </c>
+      <c r="B240" t="str">
+        <v>Matthieu Pavon</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v/>
+      </c>
+      <c r="B241" t="str">
+        <v>Matt Wallace</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Danny Wilson 2</v>
+      </c>
+      <c r="B242" t="str">
+        <v>Jon Rahm</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v/>
+      </c>
+      <c r="B243" t="str">
+        <v>Brooks Koepka</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v/>
+      </c>
+      <c r="B244" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v/>
+      </c>
+      <c r="B245" t="str">
+        <v>Cameron Young</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v/>
+      </c>
+      <c r="B246" t="str">
+        <v>Sam Burns</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v/>
+      </c>
+      <c r="B247" t="str">
+        <v>Billy Horschel</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Tom Bate</v>
+      </c>
+      <c r="B248" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v/>
+      </c>
+      <c r="B249" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v/>
+      </c>
+      <c r="B250" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v/>
+      </c>
+      <c r="B251" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v/>
+      </c>
+      <c r="B252" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v/>
+      </c>
+      <c r="B253" t="str">
+        <v>Victor Perez</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v xml:space="preserve">Jack Wilkes </v>
+      </c>
+      <c r="B254" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v/>
+      </c>
+      <c r="B255" t="str">
+        <v>Patrick Cantlay</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v/>
+      </c>
+      <c r="B256" t="str">
+        <v>Tom Kim</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v/>
+      </c>
+      <c r="B257" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v/>
+      </c>
+      <c r="B258" t="str">
+        <v>Alex Noren</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v/>
+      </c>
+      <c r="B259" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Jack Wilkes 2</v>
+      </c>
+      <c r="B260" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v/>
+      </c>
+      <c r="B261" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v/>
+      </c>
+      <c r="B262" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v/>
+      </c>
+      <c r="B263" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v/>
+      </c>
+      <c r="B264" t="str">
+        <v>Romain Langasque</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v/>
+      </c>
+      <c r="B265" t="str">
+        <v>Victor Perez</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Richard Warburton 1</v>
+      </c>
+      <c r="B266" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v/>
+      </c>
+      <c r="B267" t="str">
+        <v>Sahith Theegala</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v/>
+      </c>
+      <c r="B268" t="str">
+        <v>Brian Harman</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v/>
+      </c>
+      <c r="B269" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v/>
+      </c>
+      <c r="B270" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v/>
+      </c>
+      <c r="B271" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>John Izzard</v>
+      </c>
+      <c r="B272" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v/>
+      </c>
+      <c r="B273" t="str">
+        <v>Brooks Koepka</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v/>
+      </c>
+      <c r="B274" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v/>
+      </c>
+      <c r="B275" t="str">
+        <v>Jordan Spieth</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v/>
+      </c>
+      <c r="B276" t="str">
+        <v>Gary Woodland</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v/>
+      </c>
+      <c r="B277" t="str">
+        <v>Emiliano Grillo</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Bywater 1</v>
+      </c>
+      <c r="B278" t="str">
+        <v>Jon Rahm</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v/>
+      </c>
+      <c r="B279" t="str">
+        <v>Viktor Hovland</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v/>
+      </c>
+      <c r="B280" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v/>
+      </c>
+      <c r="B281" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v/>
+      </c>
+      <c r="B282" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v/>
+      </c>
+      <c r="B283" t="str">
+        <v>Harris English</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v xml:space="preserve">Clint Griffin </v>
+      </c>
+      <c r="B284" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v/>
+      </c>
+      <c r="B285" t="str">
+        <v>Brooks Koepka</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v/>
+      </c>
+      <c r="B286" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v/>
+      </c>
+      <c r="B287" t="str">
+        <v>Jordan Spieth</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v/>
+      </c>
+      <c r="B288" t="str">
+        <v>Sami Valimaki</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v/>
+      </c>
+      <c r="B289" t="str">
+        <v>Matthew Southgate</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Mark Allen</v>
+      </c>
+      <c r="B290" t="str">
+        <v>Xander Schauffele</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v/>
+      </c>
+      <c r="B291" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v/>
+      </c>
+      <c r="B292" t="str">
+        <v>Cameron Young</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v/>
+      </c>
+      <c r="B293" t="str">
+        <v>Alex Noren</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v/>
+      </c>
+      <c r="B294" t="str">
+        <v>Nicolai Hojgaard</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v/>
+      </c>
+      <c r="B295" t="str">
+        <v>Romain Langasque</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v xml:space="preserve">McCabe </v>
+      </c>
+      <c r="B296" t="str">
+        <v>Hideki Matsuyama</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v/>
+      </c>
+      <c r="B297" t="str">
+        <v>Patrick Cantlay</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v/>
+      </c>
+      <c r="B298" t="str">
+        <v>Sahith Theegala</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v/>
+      </c>
+      <c r="B299" t="str">
+        <v>Jordan Spieth</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v/>
+      </c>
+      <c r="B300" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v/>
+      </c>
+      <c r="B301" t="str">
+        <v>Alex Noren</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Testnew2</v>
+      </c>
+      <c r="B302" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v/>
+      </c>
+      <c r="B303" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v/>
+      </c>
+      <c r="B304" t="str">
+        <v>Adam Schenk</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v/>
+      </c>
+      <c r="B305" t="str">
+        <v>Abraham Ancer</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v/>
+      </c>
+      <c r="B306" t="str">
+        <v>Adrian Meronk</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v/>
+      </c>
+      <c r="B307" t="str">
+        <v>Adam Hadwin</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Gary Hodgsons</v>
+      </c>
+      <c r="B308" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v/>
+      </c>
+      <c r="B309" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v/>
+      </c>
+      <c r="B310" t="str">
+        <v>Brian Harman</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v/>
+      </c>
+      <c r="B311" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v/>
+      </c>
+      <c r="B312" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v/>
+      </c>
+      <c r="B313" t="str">
+        <v>Tom Hoge</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>Richie E</v>
+      </c>
+      <c r="B314" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v/>
+      </c>
+      <c r="B315" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v/>
+      </c>
+      <c r="B316" t="str">
+        <v>Patrick Cantlay</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v/>
+      </c>
+      <c r="B317" t="str">
+        <v>Sungjae Im</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v/>
+      </c>
+      <c r="B318" t="str">
+        <v>Stewart Cink</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v/>
+      </c>
+      <c r="B319" t="str">
+        <v>Adam Hadwin</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Simon Stacey</v>
+      </c>
+      <c r="B320" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v/>
+      </c>
+      <c r="B321" t="str">
+        <v>Tom Kim</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v/>
+      </c>
+      <c r="B322" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v/>
+      </c>
+      <c r="B323" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v/>
+      </c>
+      <c r="B324" t="str">
+        <v>Max Homa</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v/>
+      </c>
+      <c r="B325" t="str">
+        <v>Ryan Fox</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Jimbo</v>
+      </c>
+      <c r="B326" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v/>
+      </c>
+      <c r="B327" t="str">
+        <v>Sahith Theegala</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v/>
+      </c>
+      <c r="B328" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v/>
+      </c>
+      <c r="B329" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v/>
+      </c>
+      <c r="B330" t="str">
+        <v>Max Homa</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v/>
+      </c>
+      <c r="B331" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Ryan holmes</v>
+      </c>
+      <c r="B332" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v/>
+      </c>
+      <c r="B333" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v/>
+      </c>
+      <c r="B334" t="str">
+        <v>Justin Thomas</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v/>
+      </c>
+      <c r="B335" t="str">
+        <v>Dustin Johnson</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v/>
+      </c>
+      <c r="B336" t="str">
+        <v>Rasmus Hojgaard</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v/>
+      </c>
+      <c r="B337" t="str">
+        <v>Richard Mansell</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>JimmyC1</v>
+      </c>
+      <c r="B338" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v/>
+      </c>
+      <c r="B339" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v/>
+      </c>
+      <c r="B340" t="str">
+        <v>Justin Rose</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v/>
+      </c>
+      <c r="B341" t="str">
+        <v>Akhshay Bhatia</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v/>
+      </c>
+      <c r="B342" t="str">
+        <v>Dustin Johnson</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v/>
+      </c>
+      <c r="B343" t="str">
+        <v>Gary Woodland</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>JimmyC2</v>
+      </c>
+      <c r="B344" t="str">
+        <v>Scottie Scheffler</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v/>
+      </c>
+      <c r="B345" t="str">
+        <v>Jordan Spieth</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v/>
+      </c>
+      <c r="B346" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v/>
+      </c>
+      <c r="B347" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v/>
+      </c>
+      <c r="B348" t="str">
+        <v>Gary Woodland</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v/>
+      </c>
+      <c r="B349" t="str">
+        <v>Abraham Ancer</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>JimmyC3</v>
+      </c>
+      <c r="B350" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v/>
+      </c>
+      <c r="B351" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v/>
+      </c>
+      <c r="B352" t="str">
+        <v>Sahith Theegala</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v/>
+      </c>
+      <c r="B353" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v/>
+      </c>
+      <c r="B354" t="str">
+        <v>Max Homa</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v/>
+      </c>
+      <c r="B355" t="str">
+        <v>Jason Day</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>JimmyC4</v>
+      </c>
+      <c r="B356" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v/>
+      </c>
+      <c r="B357" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v/>
+      </c>
+      <c r="B358" t="str">
+        <v>Justin Thomas</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v/>
+      </c>
+      <c r="B359" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v/>
+      </c>
+      <c r="B360" t="str">
+        <v>Billy Horschel</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v/>
+      </c>
+      <c r="B361" t="str">
+        <v>Henrik Stenson</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>JimmyC5</v>
+      </c>
+      <c r="B362" t="str">
+        <v>Scottie Scheffler</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v/>
+      </c>
+      <c r="B363" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v/>
+      </c>
+      <c r="B364" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v/>
+      </c>
+      <c r="B365" t="str">
+        <v>Phil Mickelson</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v/>
+      </c>
+      <c r="B366" t="str">
+        <v>Tiger Woods</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v/>
+      </c>
+      <c r="B367" t="str">
+        <v>Padraig Harrington</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>Mark Weekes</v>
+      </c>
+      <c r="B368" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v/>
+      </c>
+      <c r="B369" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v/>
+      </c>
+      <c r="B370" t="str">
+        <v>Sungjae Im</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v/>
+      </c>
+      <c r="B371" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v/>
+      </c>
+      <c r="B372" t="str">
+        <v>Rasmus Hojgaard</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v/>
+      </c>
+      <c r="B373" t="str">
+        <v>Richard Mansell</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>Felicity Weekes</v>
+      </c>
+      <c r="B374" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v/>
+      </c>
+      <c r="B375" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v/>
+      </c>
+      <c r="B376" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v/>
+      </c>
+      <c r="B377" t="str">
+        <v>Nicolai Hojgaard</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v/>
+      </c>
+      <c r="B378" t="str">
+        <v>Byeong-Hun An</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v/>
+      </c>
+      <c r="B379" t="str">
+        <v>Billy Horschel</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>Ralph Weekes</v>
+      </c>
+      <c r="B380" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v/>
+      </c>
+      <c r="B381" t="str">
+        <v>Viktor Hovland</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v/>
+      </c>
+      <c r="B382" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v/>
+      </c>
+      <c r="B383" t="str">
+        <v>Sahith Theegala</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v/>
+      </c>
+      <c r="B384" t="str">
+        <v>Ewen Ferguson</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v/>
+      </c>
+      <c r="B385" t="str">
+        <v>Victor Perez</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>JJ's Weakdogs</v>
+      </c>
+      <c r="B386" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v/>
+      </c>
+      <c r="B387" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v/>
+      </c>
+      <c r="B388" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v/>
+      </c>
+      <c r="B389" t="str">
+        <v>Jason Day</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v/>
+      </c>
+      <c r="B390" t="str">
+        <v>Padraig Harrington</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v/>
+      </c>
+      <c r="B391" t="str">
+        <v>Ernie Els</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>JJ's Strongdogs</v>
+      </c>
+      <c r="B392" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v/>
+      </c>
+      <c r="B393" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v/>
+      </c>
+      <c r="B394" t="str">
+        <v>Tom Kim</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v/>
+      </c>
+      <c r="B395" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v/>
+      </c>
+      <c r="B396" t="str">
+        <v>Sahith Theegala</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v/>
+      </c>
+      <c r="B397" t="str">
+        <v>Matteo Manassero</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>Glen Joss 1</v>
+      </c>
+      <c r="B398" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v/>
+      </c>
+      <c r="B399" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v/>
+      </c>
+      <c r="B400" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v/>
+      </c>
+      <c r="B401" t="str">
+        <v>Alex Noren</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v/>
+      </c>
+      <c r="B402" t="str">
+        <v>Francesco Molinari</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v/>
+      </c>
+      <c r="B403" t="str">
+        <v>Mackenzie Hughes</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>Glen Joss 2</v>
+      </c>
+      <c r="B404" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v/>
+      </c>
+      <c r="B405" t="str">
+        <v>Patrick Cantlay</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v/>
+      </c>
+      <c r="B406" t="str">
+        <v>Tom Kim</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v/>
+      </c>
+      <c r="B407" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v/>
+      </c>
+      <c r="B408" t="str">
+        <v>Cameron Young</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v/>
+      </c>
+      <c r="B409" t="str">
+        <v>Victor Perez</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v xml:space="preserve">Josh Kerslake’s Team </v>
+      </c>
+      <c r="B410" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v/>
+      </c>
+      <c r="B411" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v/>
+      </c>
+      <c r="B412" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v/>
+      </c>
+      <c r="B413" t="str">
+        <v>Joaquin Niemann</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v/>
+      </c>
+      <c r="B414" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v/>
+      </c>
+      <c r="B415" t="str">
+        <v>Emiliano Grillo</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>Ryan Jensen</v>
+      </c>
+      <c r="B416" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v/>
+      </c>
+      <c r="B417" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v/>
+      </c>
+      <c r="B418" t="str">
+        <v>Sungjae Im</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v/>
+      </c>
+      <c r="B419" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v/>
+      </c>
+      <c r="B420" t="str">
+        <v>Alex Noren</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v/>
+      </c>
+      <c r="B421" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>Moggy's Marvels</v>
+      </c>
+      <c r="B422" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v/>
+      </c>
+      <c r="B423" t="str">
+        <v>Jon Rahm</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v/>
+      </c>
+      <c r="B424" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v/>
+      </c>
+      <c r="B425" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v/>
+      </c>
+      <c r="B426" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v/>
+      </c>
+      <c r="B427" t="str">
+        <v>Romain Langasque</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>Putting on the Ritz</v>
+      </c>
+      <c r="B428" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v/>
+      </c>
+      <c r="B429" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v/>
+      </c>
+      <c r="B430" t="str">
+        <v>Hideki Matsuyama</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v/>
+      </c>
+      <c r="B431" t="str">
+        <v>Justin Thomas</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v/>
+      </c>
+      <c r="B432" t="str">
+        <v>Nicolai Hojgaard</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v/>
+      </c>
+      <c r="B433" t="str">
+        <v>Romain Langasque</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>Hack About</v>
+      </c>
+      <c r="B434" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v/>
+      </c>
+      <c r="B435" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v/>
+      </c>
+      <c r="B436" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v/>
+      </c>
+      <c r="B437" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v/>
+      </c>
+      <c r="B438" t="str">
+        <v>Adrian Meronk</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v/>
+      </c>
+      <c r="B439" t="str">
+        <v>Henrik Stenson</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>Aussie Mark</v>
+      </c>
+      <c r="B440" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v/>
+      </c>
+      <c r="B441" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v/>
+      </c>
+      <c r="B442" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v/>
+      </c>
+      <c r="B443" t="str">
+        <v>Sepp Straka</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v/>
+      </c>
+      <c r="B444" t="str">
+        <v>Si Woo Kim</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v/>
+      </c>
+      <c r="B445" t="str">
+        <v>Byeong-Hun An</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v xml:space="preserve">Jim Josephson </v>
+      </c>
+      <c r="B446" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v/>
+      </c>
+      <c r="B447" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v/>
+      </c>
+      <c r="B448" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v/>
+      </c>
+      <c r="B449" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v/>
+      </c>
+      <c r="B450" t="str">
+        <v>Akhshay Bhatia</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v/>
+      </c>
+      <c r="B451" t="str">
+        <v>Emiliano Grillo</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>Jack Anker</v>
+      </c>
+      <c r="B452" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v/>
+      </c>
+      <c r="B453" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v/>
+      </c>
+      <c r="B454" t="str">
+        <v>Sungjae Im</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v/>
+      </c>
+      <c r="B455" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v/>
+      </c>
+      <c r="B456" t="str">
+        <v>Alex Noren</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v/>
+      </c>
+      <c r="B457" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>Hargrave 1</v>
+      </c>
+      <c r="B458" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v/>
+      </c>
+      <c r="B459" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v/>
+      </c>
+      <c r="B460" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v/>
+      </c>
+      <c r="B461" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v/>
+      </c>
+      <c r="B462" t="str">
+        <v>Akhshay Bhatia</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v/>
+      </c>
+      <c r="B463" t="str">
+        <v>Eric Cole</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>Hargrave 2</v>
+      </c>
+      <c r="B464" t="str">
+        <v>Xander Schauffele</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v/>
+      </c>
+      <c r="B465" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v/>
+      </c>
+      <c r="B466" t="str">
+        <v>Min Woo Lee</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v/>
+      </c>
+      <c r="B467" t="str">
+        <v>Denny McCarthy</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v/>
+      </c>
+      <c r="B468" t="str">
+        <v>Matt Wallace</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v/>
+      </c>
+      <c r="B469" t="str">
+        <v>Kurt Kitayama</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>Richard O’Brien</v>
+      </c>
+      <c r="B470" t="str">
+        <v>Xander Schauffele</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v/>
+      </c>
+      <c r="B471" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v/>
+      </c>
+      <c r="B472" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v/>
+      </c>
+      <c r="B473" t="str">
+        <v>Jason Day</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v/>
+      </c>
+      <c r="B474" t="str">
+        <v>Victor Perez</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v/>
+      </c>
+      <c r="B475" t="str">
+        <v>Mackenzie Hughes</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>Sandeep Grewal 1</v>
+      </c>
+      <c r="B476" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v/>
+      </c>
+      <c r="B477" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v/>
+      </c>
+      <c r="B478" t="str">
+        <v>Tom Kim</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v/>
+      </c>
+      <c r="B479" t="str">
+        <v>Sungjae Im</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v/>
+      </c>
+      <c r="B480" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v/>
+      </c>
+      <c r="B481" t="str">
+        <v>Justin Rose</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>Sandeep Grewal 2</v>
+      </c>
+      <c r="B482" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v/>
+      </c>
+      <c r="B483" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v/>
+      </c>
+      <c r="B484" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v/>
+      </c>
+      <c r="B485" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v/>
+      </c>
+      <c r="B486" t="str">
+        <v>Justin Rose</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v/>
+      </c>
+      <c r="B487" t="str">
+        <v>Marcel Siem</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>DD1</v>
+      </c>
+      <c r="B488" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v/>
+      </c>
+      <c r="B489" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v/>
+      </c>
+      <c r="B490" t="str">
+        <v>Patrick Cantlay</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v/>
+      </c>
+      <c r="B491" t="str">
+        <v>Matt Fitzpatrick</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v/>
+      </c>
+      <c r="B492" t="str">
+        <v>Justin Rose</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v/>
+      </c>
+      <c r="B493" t="str">
+        <v>Jason Day</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>DD2</v>
+      </c>
+      <c r="B494" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v/>
+      </c>
+      <c r="B495" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v/>
+      </c>
+      <c r="B496" t="str">
+        <v>Justin Rose</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v/>
+      </c>
+      <c r="B497" t="str">
+        <v>Akhshay Bhatia</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v/>
+      </c>
+      <c r="B498" t="str">
+        <v>Matt Wallace</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v/>
+      </c>
+      <c r="B499" t="str">
+        <v>Tiger Woods</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>Luke Hogan</v>
+      </c>
+      <c r="B500" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v/>
+      </c>
+      <c r="B501" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v/>
+      </c>
+      <c r="B502" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v/>
+      </c>
+      <c r="B503" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v/>
+      </c>
+      <c r="B504" t="str">
+        <v>Rasmus Hojgaard</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v/>
+      </c>
+      <c r="B505" t="str">
+        <v>Romain Langasque</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>Alan Barber1</v>
+      </c>
+      <c r="B506" t="str">
+        <v>Scottie Scheffler</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v/>
+      </c>
+      <c r="B507" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v/>
+      </c>
+      <c r="B508" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v/>
+      </c>
+      <c r="B509" t="str">
+        <v>Dean Burmester</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v/>
+      </c>
+      <c r="B510" t="str">
+        <v>Victor Perez</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v/>
+      </c>
+      <c r="B511" t="str">
+        <v>Jordan Smith</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>Alan Barber 2</v>
+      </c>
+      <c r="B512" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v/>
+      </c>
+      <c r="B513" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v/>
+      </c>
+      <c r="B514" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v/>
+      </c>
+      <c r="B515" t="str">
+        <v>Max Homa</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v/>
+      </c>
+      <c r="B516" t="str">
+        <v>Dean Burmester</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v/>
+      </c>
+      <c r="B517" t="str">
+        <v>Matteo Manassero</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>BinJuiceBogeys</v>
+      </c>
+      <c r="B518" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v/>
+      </c>
+      <c r="B519" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v/>
+      </c>
+      <c r="B520" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v/>
+      </c>
+      <c r="B521" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v/>
+      </c>
+      <c r="B522" t="str">
+        <v>Christiaan Bezuidenhout</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v/>
+      </c>
+      <c r="B523" t="str">
+        <v>Keegan Bradley</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>Hazard Perception</v>
+      </c>
+      <c r="B524" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v/>
+      </c>
+      <c r="B525" t="str">
+        <v>Hideki Matsuyama</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v/>
+      </c>
+      <c r="B526" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v/>
+      </c>
+      <c r="B527" t="str">
+        <v>Jordan Spieth</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v/>
+      </c>
+      <c r="B528" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v/>
+      </c>
+      <c r="B529" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>James Dart</v>
+      </c>
+      <c r="B530" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v/>
+      </c>
+      <c r="B531" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v/>
+      </c>
+      <c r="B532" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v/>
+      </c>
+      <c r="B533" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v/>
+      </c>
+      <c r="B534" t="str">
+        <v>Sepp Straka</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v/>
+      </c>
+      <c r="B535" t="str">
+        <v>Jordan Smith</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>Andy lapthorne</v>
+      </c>
+      <c r="B536" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v/>
+      </c>
+      <c r="B537" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v/>
+      </c>
+      <c r="B538" t="str">
+        <v>Jon Rahm</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v/>
+      </c>
+      <c r="B539" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v/>
+      </c>
+      <c r="B540" t="str">
+        <v>Sami Valimaki</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v/>
+      </c>
+      <c r="B541" t="str">
+        <v>Jorge Campillo</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>Dooks of Hazzards</v>
+      </c>
+      <c r="B542" t="str">
+        <v>Viktor Hovland</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v/>
+      </c>
+      <c r="B543" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v/>
+      </c>
+      <c r="B544" t="str">
+        <v>Sahith Theegala</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v/>
+      </c>
+      <c r="B545" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v/>
+      </c>
+      <c r="B546" t="str">
+        <v>Sepp Straka</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v/>
+      </c>
+      <c r="B547" t="str">
+        <v>Nicolai Hojgaard</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>John Gower</v>
+      </c>
+      <c r="B548" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v/>
+      </c>
+      <c r="B549" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v/>
+      </c>
+      <c r="B550" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v/>
+      </c>
+      <c r="B551" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v/>
+      </c>
+      <c r="B552" t="str">
+        <v>Matteo Manassero</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v/>
+      </c>
+      <c r="B553" t="str">
+        <v>Romain Langasque</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>Adrian Lis</v>
+      </c>
+      <c r="B554" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v/>
+      </c>
+      <c r="B555" t="str">
+        <v>Tom Kim</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v/>
+      </c>
+      <c r="B556" t="str">
+        <v>Matt Fitzpatrick</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v/>
+      </c>
+      <c r="B557" t="str">
+        <v>Cameron Young</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v/>
+      </c>
+      <c r="B558" t="str">
+        <v>Max Homa</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v/>
+      </c>
+      <c r="B559" t="str">
+        <v>Justin Rose</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>Matt McCullagh</v>
+      </c>
+      <c r="B560" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v/>
+      </c>
+      <c r="B561" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v/>
+      </c>
+      <c r="B562" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v/>
+      </c>
+      <c r="B563" t="str">
+        <v>Alex Noren</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v/>
+      </c>
+      <c r="B564" t="str">
+        <v>Richard Mansell</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v/>
+      </c>
+      <c r="B565" t="str">
+        <v>Elvis Smylie</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>Gcs open 2</v>
+      </c>
+      <c r="B566" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v/>
+      </c>
+      <c r="B567" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v/>
+      </c>
+      <c r="B568" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v/>
+      </c>
+      <c r="B569" t="str">
+        <v>Brian Harman</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v/>
+      </c>
+      <c r="B570" t="str">
+        <v>Sungjae Im</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v/>
+      </c>
+      <c r="B571" t="str">
+        <v>Ernie Els</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v>Gcs open 1</v>
+      </c>
+      <c r="B572" t="str">
+        <v>Scottie Scheffler</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="str">
+        <v/>
+      </c>
+      <c r="B573" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v/>
+      </c>
+      <c r="B574" t="str">
+        <v>Akhshay Bhatia</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v/>
+      </c>
+      <c r="B575" t="str">
+        <v>Laurie Canter</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v/>
+      </c>
+      <c r="B576" t="str">
+        <v>Harris English</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v/>
+      </c>
+      <c r="B577" t="str">
+        <v>Jordan Smith</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>Richard Butler</v>
+      </c>
+      <c r="B578" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v/>
+      </c>
+      <c r="B579" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v/>
+      </c>
+      <c r="B580" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v/>
+      </c>
+      <c r="B581" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v/>
+      </c>
+      <c r="B582" t="str">
+        <v>Akhshay Bhatia</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v/>
+      </c>
+      <c r="B583" t="str">
+        <v>Keegan Bradley</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>Graeme Coxon</v>
+      </c>
+      <c r="B584" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v/>
+      </c>
+      <c r="B585" t="str">
+        <v>Sahith Theegala</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v/>
+      </c>
+      <c r="B586" t="str">
+        <v>Brian Harman</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v/>
+      </c>
+      <c r="B587" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v/>
+      </c>
+      <c r="B588" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v/>
+      </c>
+      <c r="B589" t="str">
+        <v>Rasmus Hojgaard</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>Ed Mcbrearty</v>
+      </c>
+      <c r="B590" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
+        <v/>
+      </c>
+      <c r="B591" t="str">
+        <v>Jon Rahm</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="str">
+        <v/>
+      </c>
+      <c r="B592" t="str">
+        <v>Viktor Hovland</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v/>
+      </c>
+      <c r="B593" t="str">
+        <v>Cameron Young</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="str">
+        <v/>
+      </c>
+      <c r="B594" t="str">
+        <v>Guido Migliozzi</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v/>
+      </c>
+      <c r="B595" t="str">
+        <v>Matthieu Pavon</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="str">
+        <v>Ross Steele</v>
+      </c>
+      <c r="B596" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="str">
+        <v/>
+      </c>
+      <c r="B597" t="str">
+        <v>Viktor Hovland</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v/>
+      </c>
+      <c r="B598" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v/>
+      </c>
+      <c r="B599" t="str">
+        <v>Alex Noren</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v/>
+      </c>
+      <c r="B600" t="str">
+        <v>Christiaan Bezuidenhout</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v/>
+      </c>
+      <c r="B601" t="str">
+        <v>Tiger Woods</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="str">
+        <v>Shaun Marples 1st</v>
+      </c>
+      <c r="B602" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="str">
+        <v/>
+      </c>
+      <c r="B603" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="str">
+        <v/>
+      </c>
+      <c r="B604" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="str">
+        <v/>
+      </c>
+      <c r="B605" t="str">
+        <v>Nicolai Hojgaard</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v/>
+      </c>
+      <c r="B606" t="str">
+        <v>Rasmus Hojgaard</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v/>
+      </c>
+      <c r="B607" t="str">
+        <v>Matt Wallace</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="str">
+        <v>Shaun Marples 2nd</v>
+      </c>
+      <c r="B608" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="str">
+        <v/>
+      </c>
+      <c r="B609" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="str">
+        <v/>
+      </c>
+      <c r="B610" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="str">
+        <v/>
+      </c>
+      <c r="B611" t="str">
+        <v>Matt Fitzpatrick</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="str">
+        <v/>
+      </c>
+      <c r="B612" t="str">
+        <v>Nicolai Hojgaard</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="str">
+        <v/>
+      </c>
+      <c r="B613" t="str">
+        <v>Rasmus Hojgaard</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="str">
+        <v>Josh Simpson</v>
+      </c>
+      <c r="B614" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="str">
+        <v/>
+      </c>
+      <c r="B615" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="str">
+        <v/>
+      </c>
+      <c r="B616" t="str">
+        <v>Cameron Young</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="str">
+        <v/>
+      </c>
+      <c r="B617" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="str">
+        <v/>
+      </c>
+      <c r="B618" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="str">
+        <v/>
+      </c>
+      <c r="B619" t="str">
+        <v>Dean Burmester</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="str">
+        <v>Tom Atkinson</v>
+      </c>
+      <c r="B620" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="str">
+        <v/>
+      </c>
+      <c r="B621" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="str">
+        <v/>
+      </c>
+      <c r="B622" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="str">
+        <v/>
+      </c>
+      <c r="B623" t="str">
+        <v>Hideki Matsuyama</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
+        <v/>
+      </c>
+      <c r="B624" t="str">
+        <v>Max Homa</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="str">
+        <v/>
+      </c>
+      <c r="B625" t="str">
+        <v>Sam Horsfield</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="str">
+        <v>Tom Atkinson 2</v>
+      </c>
+      <c r="B626" t="str">
+        <v>Scottie Scheffler</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="str">
+        <v/>
+      </c>
+      <c r="B627" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="str">
+        <v/>
+      </c>
+      <c r="B628" t="str">
+        <v>Laurie Canter</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="str">
+        <v/>
+      </c>
+      <c r="B629" t="str">
+        <v>David Puig</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="str">
+        <v/>
+      </c>
+      <c r="B630" t="str">
+        <v>Romain Langasque</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="str">
+        <v/>
+      </c>
+      <c r="B631" t="str">
+        <v>Jordan Smith</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="str">
+        <v>Neil M</v>
+      </c>
+      <c r="B632" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="str">
+        <v/>
+      </c>
+      <c r="B633" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="str">
+        <v/>
+      </c>
+      <c r="B634" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="str">
+        <v/>
+      </c>
+      <c r="B635" t="str">
+        <v>Cameron Young</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="str">
+        <v/>
+      </c>
+      <c r="B636" t="str">
+        <v>Matt Wallace</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="str">
+        <v/>
+      </c>
+      <c r="B637" t="str">
+        <v>Thorbjorn Olesen</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="str">
+        <v>Trooney Lunes</v>
+      </c>
+      <c r="B638" t="str">
+        <v>Xander Schauffele</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="str">
+        <v/>
+      </c>
+      <c r="B639" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="str">
+        <v/>
+      </c>
+      <c r="B640" t="str">
+        <v>Joaquin Niemann</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="str">
+        <v/>
+      </c>
+      <c r="B641" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="str">
+        <v/>
+      </c>
+      <c r="B642" t="str">
+        <v>Ryan Fox</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="str">
+        <v/>
+      </c>
+      <c r="B643" t="str">
+        <v>Ewen Ferguson</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="str">
+        <v>Mayukh Chhibber 1</v>
+      </c>
+      <c r="B644" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="str">
+        <v/>
+      </c>
+      <c r="B645" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="str">
+        <v/>
+      </c>
+      <c r="B646" t="str">
+        <v>Sungjae Im</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="str">
+        <v/>
+      </c>
+      <c r="B647" t="str">
+        <v>Sepp Straka</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="str">
+        <v/>
+      </c>
+      <c r="B648" t="str">
+        <v>Keegan Bradley</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="str">
+        <v/>
+      </c>
+      <c r="B649" t="str">
+        <v>Romain Langasque</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="str">
+        <v>Mayukh Chhibber 2</v>
+      </c>
+      <c r="B650" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="str">
+        <v/>
+      </c>
+      <c r="B651" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="str">
+        <v/>
+      </c>
+      <c r="B652" t="str">
+        <v>Tom Kim</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="str">
+        <v/>
+      </c>
+      <c r="B653" t="str">
+        <v>Alex Noren</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="str">
+        <v/>
+      </c>
+      <c r="B654" t="str">
+        <v>Nicolai Hojgaard</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="str">
+        <v/>
+      </c>
+      <c r="B655" t="str">
+        <v>Dominic Clemons</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="str">
+        <v>Perfect Peter</v>
+      </c>
+      <c r="B656" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="str">
+        <v/>
+      </c>
+      <c r="B657" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="str">
+        <v/>
+      </c>
+      <c r="B658" t="str">
+        <v>Viktor Hovland</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="str">
+        <v/>
+      </c>
+      <c r="B659" t="str">
+        <v>Ryan Fox</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="str">
+        <v/>
+      </c>
+      <c r="B660" t="str">
+        <v>Will Zalatoris</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="str">
+        <v/>
+      </c>
+      <c r="B661" t="str">
+        <v>Matteo Manassero</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="str">
+        <v>Ian Draper Open1</v>
+      </c>
+      <c r="B662" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="str">
+        <v/>
+      </c>
+      <c r="B663" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="str">
+        <v/>
+      </c>
+      <c r="B664" t="str">
+        <v>Min Woo Lee</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="str">
+        <v/>
+      </c>
+      <c r="B665" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="str">
+        <v/>
+      </c>
+      <c r="B666" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="str">
+        <v/>
+      </c>
+      <c r="B667" t="str">
+        <v>Russell Henley</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="str">
+        <v>Ian Draper Open2</v>
+      </c>
+      <c r="B668" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="str">
+        <v/>
+      </c>
+      <c r="B669" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="str">
+        <v/>
+      </c>
+      <c r="B670" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="str">
+        <v/>
+      </c>
+      <c r="B671" t="str">
+        <v>Nicolai Hojgaard</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="str">
+        <v/>
+      </c>
+      <c r="B672" t="str">
+        <v>Taylor Moore</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="str">
+        <v/>
+      </c>
+      <c r="B673" t="str">
+        <v>Tom Hoge</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="str">
+        <v>ID3</v>
+      </c>
+      <c r="B674" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="str">
+        <v/>
+      </c>
+      <c r="B675" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="str">
+        <v/>
+      </c>
+      <c r="B676" t="str">
+        <v>Akhshay Bhatia</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="str">
+        <v/>
+      </c>
+      <c r="B677" t="str">
+        <v>Brendon Todd</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="str">
+        <v/>
+      </c>
+      <c r="B678" t="str">
+        <v>Abraham Ancer</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="str">
+        <v/>
+      </c>
+      <c r="B679" t="str">
+        <v>Billy Horschel</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="str">
+        <v xml:space="preserve">McQueen </v>
+      </c>
+      <c r="B680" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="str">
+        <v/>
+      </c>
+      <c r="B681" t="str">
+        <v>Patrick Cantlay</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="str">
+        <v/>
+      </c>
+      <c r="B682" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="str">
+        <v/>
+      </c>
+      <c r="B683" t="str">
+        <v>Sepp Straka</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="str">
+        <v/>
+      </c>
+      <c r="B684" t="str">
+        <v>Matthew Jordan</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="str">
+        <v/>
+      </c>
+      <c r="B685" t="str">
+        <v>Matthieu Pavon</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="str">
+        <v>Team Nutz</v>
+      </c>
+      <c r="B686" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="str">
+        <v/>
+      </c>
+      <c r="B687" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="str">
+        <v/>
+      </c>
+      <c r="B688" t="str">
+        <v>Justin Thomas</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="str">
+        <v/>
+      </c>
+      <c r="B689" t="str">
+        <v>Justin Rose</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="str">
+        <v/>
+      </c>
+      <c r="B690" t="str">
+        <v>Ewen Ferguson</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="str">
+        <v/>
+      </c>
+      <c r="B691" t="str">
+        <v>Victor Perez</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="str">
+        <v>James Gove</v>
+      </c>
+      <c r="B692" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="str">
+        <v/>
+      </c>
+      <c r="B693" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="str">
+        <v/>
+      </c>
+      <c r="B694" t="str">
+        <v>Brian Harman</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="str">
+        <v/>
+      </c>
+      <c r="B695" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="str">
+        <v/>
+      </c>
+      <c r="B696" t="str">
+        <v>Victor Perez</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="str">
+        <v/>
+      </c>
+      <c r="B697" t="str">
+        <v>Adam Hadwin</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="str">
+        <v>Jordan Folorunso</v>
+      </c>
+      <c r="B698" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="str">
+        <v/>
+      </c>
+      <c r="B699" t="str">
+        <v>Tom Kim</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="str">
+        <v/>
+      </c>
+      <c r="B700" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="str">
+        <v/>
+      </c>
+      <c r="B701" t="str">
+        <v>Cameron Young</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="str">
+        <v/>
+      </c>
+      <c r="B702" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="str">
+        <v/>
+      </c>
+      <c r="B703" t="str">
+        <v>Jason Day</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="str">
+        <v>Bernard Tonge 1</v>
+      </c>
+      <c r="B704" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="str">
+        <v/>
+      </c>
+      <c r="B705" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="str">
+        <v/>
+      </c>
+      <c r="B706" t="str">
+        <v>Cameron Young</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="str">
+        <v/>
+      </c>
+      <c r="B707" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="str">
+        <v/>
+      </c>
+      <c r="B708" t="str">
+        <v>Ryan Fox</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="str">
+        <v/>
+      </c>
+      <c r="B709" t="str">
+        <v>Jason Day</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="str">
+        <v>Bernard Tonge 2</v>
+      </c>
+      <c r="B710" t="str">
+        <v>Xander Schauffele</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="str">
+        <v/>
+      </c>
+      <c r="B711" t="str">
+        <v>Jon Rahm</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="str">
+        <v/>
+      </c>
+      <c r="B712" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="str">
+        <v/>
+      </c>
+      <c r="B713" t="str">
+        <v>Max Homa</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="str">
+        <v/>
+      </c>
+      <c r="B714" t="str">
+        <v>Chris Kirk</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="str">
+        <v/>
+      </c>
+      <c r="B715" t="str">
+        <v>Tiger Woods</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="str">
+        <v>Drowning not waving 1</v>
+      </c>
+      <c r="B716" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="str">
+        <v/>
+      </c>
+      <c r="B717" t="str">
+        <v>Viktor Hovland</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="str">
+        <v/>
+      </c>
+      <c r="B718" t="str">
+        <v>Cameron Young</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="str">
+        <v/>
+      </c>
+      <c r="B719" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="str">
+        <v/>
+      </c>
+      <c r="B720" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="str">
+        <v/>
+      </c>
+      <c r="B721" t="str">
+        <v>Adrian Meronk</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="str">
+        <v>Jason Kelly 1</v>
+      </c>
+      <c r="B722" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="str">
+        <v/>
+      </c>
+      <c r="B723" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="str">
+        <v/>
+      </c>
+      <c r="B724" t="str">
+        <v>Sungjae Im</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="str">
+        <v/>
+      </c>
+      <c r="B725" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="str">
+        <v/>
+      </c>
+      <c r="B726" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="str">
+        <v/>
+      </c>
+      <c r="B727" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="str">
+        <v>Jason Kelly 2</v>
+      </c>
+      <c r="B728" t="str">
+        <v>Scottie Scheffler</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="str">
+        <v/>
+      </c>
+      <c r="B729" t="str">
+        <v>Hideki Matsuyama</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="str">
+        <v/>
+      </c>
+      <c r="B730" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="str">
+        <v/>
+      </c>
+      <c r="B731" t="str">
+        <v>Si Woo Kim</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="str">
+        <v/>
+      </c>
+      <c r="B732" t="str">
+        <v>Christiaan Bezuidenhout</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="str">
+        <v/>
+      </c>
+      <c r="B733" t="str">
+        <v>Tom Hoge</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="str">
+        <v>Test us</v>
+      </c>
+      <c r="B734" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="str">
+        <v/>
+      </c>
+      <c r="B735" t="str">
+        <v>Adam Schenk</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="str">
+        <v/>
+      </c>
+      <c r="B736" t="str">
+        <v>Abraham Ancer</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="str">
+        <v/>
+      </c>
+      <c r="B737" t="str">
+        <v>Adrian Meronk</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="str">
+        <v/>
+      </c>
+      <c r="B738" t="str">
+        <v>Adam Hadwin</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="str">
+        <v/>
+      </c>
+      <c r="B739" t="str">
+        <v>Aguri Iwasaki</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="str">
+        <v>Patrick kelly 1</v>
+      </c>
+      <c r="B740" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="str">
+        <v/>
+      </c>
+      <c r="B741" t="str">
+        <v>Patrick Cantlay</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="str">
+        <v/>
+      </c>
+      <c r="B742" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="str">
+        <v/>
+      </c>
+      <c r="B743" t="str">
+        <v>Cameron Young</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="str">
+        <v/>
+      </c>
+      <c r="B744" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="str">
+        <v/>
+      </c>
+      <c r="B745" t="str">
+        <v>Dominic Clemons</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="str">
+        <v>Stephen Dawson</v>
+      </c>
+      <c r="B746" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="str">
+        <v/>
+      </c>
+      <c r="B747" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="str">
+        <v/>
+      </c>
+      <c r="B748" t="str">
+        <v>Tom Kim</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="str">
+        <v/>
+      </c>
+      <c r="B749" t="str">
+        <v>Davis Thompson</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="str">
+        <v/>
+      </c>
+      <c r="B750" t="str">
+        <v>Emiliano Grillo</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="str">
+        <v/>
+      </c>
+      <c r="B751" t="str">
+        <v>Shubhankar Sharma</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="str">
+        <v>George Maddox Open24</v>
+      </c>
+      <c r="B752" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="str">
+        <v/>
+      </c>
+      <c r="B753" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="str">
+        <v/>
+      </c>
+      <c r="B754" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="str">
+        <v/>
+      </c>
+      <c r="B755" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="str">
+        <v/>
+      </c>
+      <c r="B756" t="str">
+        <v>Akhshay Bhatia</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="str">
+        <v/>
+      </c>
+      <c r="B757" t="str">
+        <v>Tom McKibbin</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="str">
+        <v>Bywater 2</v>
+      </c>
+      <c r="B758" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="str">
+        <v/>
+      </c>
+      <c r="B759" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="str">
+        <v/>
+      </c>
+      <c r="B760" t="str">
+        <v>Hideki Matsuyama</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="str">
+        <v/>
+      </c>
+      <c r="B761" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="str">
+        <v/>
+      </c>
+      <c r="B762" t="str">
+        <v>Francesco Molinari</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="str">
+        <v/>
+      </c>
+      <c r="B763" t="str">
+        <v>Keegan Bradley</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="str">
+        <v>Mark Webber</v>
+      </c>
+      <c r="B764" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="str">
+        <v/>
+      </c>
+      <c r="B765" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="str">
+        <v/>
+      </c>
+      <c r="B766" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="str">
+        <v/>
+      </c>
+      <c r="B767" t="str">
+        <v>Matt Fitzpatrick</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="str">
+        <v/>
+      </c>
+      <c r="B768" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="str">
+        <v/>
+      </c>
+      <c r="B769" t="str">
+        <v>Matthew Jordan</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="str">
+        <v>Open Sean</v>
+      </c>
+      <c r="B770" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="str">
+        <v/>
+      </c>
+      <c r="B771" t="str">
+        <v>Sahith Theegala</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="str">
+        <v/>
+      </c>
+      <c r="B772" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="str">
+        <v/>
+      </c>
+      <c r="B773" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="str">
+        <v/>
+      </c>
+      <c r="B774" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="str">
+        <v/>
+      </c>
+      <c r="B775" t="str">
+        <v>Harris English</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="str">
+        <v>Matty Hetherington</v>
+      </c>
+      <c r="B776" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="str">
+        <v/>
+      </c>
+      <c r="B777" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="str">
+        <v/>
+      </c>
+      <c r="B778" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="str">
+        <v/>
+      </c>
+      <c r="B779" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="str">
+        <v/>
+      </c>
+      <c r="B780" t="str">
+        <v>Alex Noren</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="str">
+        <v/>
+      </c>
+      <c r="B781" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="str">
+        <v>Legia Crapski</v>
+      </c>
+      <c r="B782" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="str">
+        <v/>
+      </c>
+      <c r="B783" t="str">
+        <v>Tom Kim</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="str">
+        <v/>
+      </c>
+      <c r="B784" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="str">
+        <v/>
+      </c>
+      <c r="B785" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="str">
+        <v/>
+      </c>
+      <c r="B786" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="str">
+        <v/>
+      </c>
+      <c r="B787" t="str">
+        <v>Richard Mansell</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="str">
+        <v>Every day I'm Schauffeleing</v>
+      </c>
+      <c r="B788" t="str">
+        <v>Xander Schauffele</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="str">
+        <v/>
+      </c>
+      <c r="B789" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="str">
+        <v/>
+      </c>
+      <c r="B790" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="str">
+        <v/>
+      </c>
+      <c r="B791" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="str">
+        <v/>
+      </c>
+      <c r="B792" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="str">
+        <v/>
+      </c>
+      <c r="B793" t="str">
+        <v>Victor Perez</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="str">
+        <v>Austin Maestro</v>
+      </c>
+      <c r="B794" t="str">
+        <v>Xander Schauffele</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="str">
+        <v/>
+      </c>
+      <c r="B795" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="str">
+        <v/>
+      </c>
+      <c r="B796" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="str">
+        <v/>
+      </c>
+      <c r="B797" t="str">
+        <v>Tom Kim</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="str">
+        <v/>
+      </c>
+      <c r="B798" t="str">
+        <v>Austin Eckroat</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="str">
+        <v/>
+      </c>
+      <c r="B799" t="str">
+        <v>Sami Valimaki</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="str">
+        <v>Hills_Hackers_1</v>
+      </c>
+      <c r="B800" t="str">
+        <v>Ludvig Aberg</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="str">
+        <v/>
+      </c>
+      <c r="B801" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="str">
+        <v/>
+      </c>
+      <c r="B802" t="str">
+        <v>Patrick Cantlay</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="str">
+        <v/>
+      </c>
+      <c r="B803" t="str">
+        <v>Brian Harman</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="str">
+        <v/>
+      </c>
+      <c r="B804" t="str">
+        <v>Akhshay Bhatia</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="str">
+        <v/>
+      </c>
+      <c r="B805" t="str">
+        <v>Jesper Svensson</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="str">
+        <v>Hills_Hackers_2</v>
+      </c>
+      <c r="B806" t="str">
+        <v>Xander Schauffele</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="str">
+        <v/>
+      </c>
+      <c r="B807" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="str">
+        <v/>
+      </c>
+      <c r="B808" t="str">
+        <v>Sahith Theegala</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="str">
+        <v/>
+      </c>
+      <c r="B809" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="str">
+        <v/>
+      </c>
+      <c r="B810" t="str">
+        <v>Corey Conners</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="str">
+        <v/>
+      </c>
+      <c r="B811" t="str">
+        <v>Billy Horschel</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="str">
+        <v>Hills_Hackers_3</v>
+      </c>
+      <c r="B812" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="str">
+        <v/>
+      </c>
+      <c r="B813" t="str">
+        <v>Brooks Koepka</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="str">
+        <v/>
+      </c>
+      <c r="B814" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="str">
+        <v/>
+      </c>
+      <c r="B815" t="str">
+        <v>Joaquin Niemann</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="str">
+        <v/>
+      </c>
+      <c r="B816" t="str">
+        <v>Dean Burmester</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="str">
+        <v/>
+      </c>
+      <c r="B817" t="str">
+        <v>Adrian Meronk</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="str">
+        <v>JEdwards</v>
+      </c>
+      <c r="B818" t="str">
+        <v>Collin Morikawa</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="str">
+        <v/>
+      </c>
+      <c r="B819" t="str">
+        <v>Hideki Matsuyama</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="str">
+        <v/>
+      </c>
+      <c r="B820" t="str">
+        <v>Sungjae Im</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="str">
+        <v/>
+      </c>
+      <c r="B821" t="str">
+        <v>Aaron Rai</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="str">
+        <v/>
+      </c>
+      <c r="B822" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="str">
+        <v/>
+      </c>
+      <c r="B823" t="str">
+        <v>Sepp Straka</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="str">
+        <v>JEdwards 2</v>
+      </c>
+      <c r="B824" t="str">
+        <v>Jon Rahm</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="str">
+        <v/>
+      </c>
+      <c r="B825" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="str">
+        <v/>
+      </c>
+      <c r="B826" t="str">
+        <v>Hideki Matsuyama</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="str">
+        <v/>
+      </c>
+      <c r="B827" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="str">
+        <v/>
+      </c>
+      <c r="B828" t="str">
+        <v>Sungjae Im</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="str">
+        <v/>
+      </c>
+      <c r="B829" t="str">
+        <v>Matteo Manassero</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="str">
+        <v>David Wilkes</v>
+      </c>
+      <c r="B830" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="str">
+        <v/>
+      </c>
+      <c r="B831" t="str">
+        <v>Robert MacIntyre</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="str">
+        <v/>
+      </c>
+      <c r="B832" t="str">
+        <v>Cameron Smith</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="str">
+        <v/>
+      </c>
+      <c r="B833" t="str">
+        <v>Brian Harman</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="str">
+        <v/>
+      </c>
+      <c r="B834" t="str">
+        <v>Wyndham Clark</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="str">
+        <v/>
+      </c>
+      <c r="B835" t="str">
+        <v>Dustin Johnson</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="str">
+        <v>Dibb Team 1</v>
+      </c>
+      <c r="B836" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="str">
+        <v/>
+      </c>
+      <c r="B837" t="str">
+        <v>Jon Rahm</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="str">
+        <v/>
+      </c>
+      <c r="B838" t="str">
+        <v>Tom Kim</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="str">
+        <v/>
+      </c>
+      <c r="B839" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="str">
+        <v/>
+      </c>
+      <c r="B840" t="str">
+        <v>Sungjae Im</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="str">
+        <v/>
+      </c>
+      <c r="B841" t="str">
+        <v>Shubhankar Sharma</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="str">
+        <v>James Niknejad</v>
+      </c>
+      <c r="B842" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="str">
+        <v/>
+      </c>
+      <c r="B843" t="str">
+        <v>Brooks Koepka</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="str">
+        <v/>
+      </c>
+      <c r="B844" t="str">
+        <v>Matt Fitzpatrick</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="str">
+        <v/>
+      </c>
+      <c r="B845" t="str">
+        <v>Ryan Fox</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="str">
+        <v/>
+      </c>
+      <c r="B846" t="str">
+        <v>Akhshay Bhatia</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="str">
+        <v/>
+      </c>
+      <c r="B847" t="str">
+        <v>Dean Burmester</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="str">
+        <v xml:space="preserve">Dennis Holdsworth </v>
+      </c>
+      <c r="B848" t="str">
+        <v>Bryson DeChambeau</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="str">
+        <v/>
+      </c>
+      <c r="B849" t="str">
+        <v>Hideki Matsuyama</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="str">
+        <v/>
+      </c>
+      <c r="B850" t="str">
+        <v>Cameron Young</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="str">
+        <v/>
+      </c>
+      <c r="B851" t="str">
+        <v>Adam Scott</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="str">
+        <v/>
+      </c>
+      <c r="B852" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="str">
+        <v/>
+      </c>
+      <c r="B853" t="str">
+        <v>Harris English</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="str">
+        <v xml:space="preserve">Magnus </v>
+      </c>
+      <c r="B854" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="str">
+        <v/>
+      </c>
+      <c r="B855" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="str">
+        <v/>
+      </c>
+      <c r="B856" t="str">
+        <v>Brooks Koepka</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="str">
+        <v/>
+      </c>
+      <c r="B857" t="str">
+        <v>Hideki Matsuyama</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="str">
+        <v/>
+      </c>
+      <c r="B858" t="str">
+        <v>Francesco Molinari</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="str">
+        <v/>
+      </c>
+      <c r="B859" t="str">
+        <v>Matthieu Pavon</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="str">
+        <v>Matthew Woody</v>
+      </c>
+      <c r="B860" t="str">
+        <v>Rory McIlroy</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="str">
+        <v/>
+      </c>
+      <c r="B861" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="str">
+        <v/>
+      </c>
+      <c r="B862" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="str">
+        <v/>
+      </c>
+      <c r="B863" t="str">
+        <v>Louis Oosthuizen</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="str">
+        <v/>
+      </c>
+      <c r="B864" t="str">
+        <v>Shubhankar Sharma</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="str">
+        <v/>
+      </c>
+      <c r="B865" t="str">
+        <v>Victor Perez</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="str">
+        <v>Mark Swires</v>
+      </c>
+      <c r="B866" t="str">
+        <v>Tommy Fleetwood</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="str">
+        <v/>
+      </c>
+      <c r="B867" t="str">
+        <v>Tyrrell Hatton</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="str">
+        <v/>
+      </c>
+      <c r="B868" t="str">
+        <v>Shane Lowry</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="str">
+        <v/>
+      </c>
+      <c r="B869" t="str">
+        <v>Tony Finau</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="str">
+        <v/>
+      </c>
+      <c r="B870" t="str">
+        <v>Justin Rose</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="str">
+        <v/>
+      </c>
+      <c r="B871" t="str">
+        <v>Guido Migliozzi</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B205"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B871"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2067,55 +7395,807 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Aman</v>
+        <v>Toby Skinner</v>
       </c>
       <c r="B2" t="str">
-        <v>saifa@gma.co</v>
+        <v>toby.skins@gmail.com</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Saifal</v>
+        <v>Ray Dalton</v>
       </c>
       <c r="B3" t="str">
-        <v>sai@sai.co</v>
+        <v>raydalton@gadegroup.co.uk</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Saifal</v>
+        <v>Phil Thompson</v>
       </c>
       <c r="B4" t="str">
-        <v>saifa@gma.com</v>
+        <v>phil.thai73@gmail.com</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Saif</v>
+        <v>Christopher Steele</v>
       </c>
       <c r="B5" t="str">
-        <v>saifalcoding@gmail.com</v>
+        <v>chris.steele@tinsleybridge.co.uk</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Raj Kumar</v>
+        <v>Oliver Reid</v>
       </c>
       <c r="B6" t="str">
-        <v>123@124.com</v>
+        <v>ojreid9@gmail.com</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Aman 1</v>
+        <v>Barry Winter</v>
       </c>
       <c r="B7" t="str">
-        <v>Aman 1@example.com</v>
+        <v>barrywinter1984@hotmail.co.uk</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>James Hickson</v>
+      </c>
+      <c r="B8" t="str">
+        <v>jhickson@thomsontyndall.com</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Stuart Field</v>
+      </c>
+      <c r="B9" t="str">
+        <v>megsons_barmy_army@hotmail.com</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Mark Hodder</v>
+      </c>
+      <c r="B10" t="str">
+        <v>markhodder20@gmail.com</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Stephen Baumohl</v>
+      </c>
+      <c r="B11" t="str">
+        <v>stephen.baumohl@gmail.com</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Tim Lewis</v>
+      </c>
+      <c r="B12" t="str">
+        <v>tlewy132@yahoo.co.uk</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Chris McCabe</v>
+      </c>
+      <c r="B13" t="str">
+        <v>christophermccabe2008@gmail.com</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Saifal</v>
+      </c>
+      <c r="B14" t="str">
+        <v>saifa@gma.co</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Rees Britt</v>
+      </c>
+      <c r="B15" t="str">
+        <v>reesbritt@hotmail.co.uk</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Mr Stewart Copeland</v>
+      </c>
+      <c r="B16" t="str">
+        <v>stewpersonic1@gmail.com</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v xml:space="preserve">John Gutkin </v>
+      </c>
+      <c r="B17" t="str">
+        <v>johngutkin@btinternet.com</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Michael Drain</v>
+      </c>
+      <c r="B18" t="str">
+        <v>mickdrain63@hotmail.com</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Robert Daw</v>
+      </c>
+      <c r="B19" t="str">
+        <v>robertdaw_273@hotmail.co.uk</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Tomasteros</v>
+      </c>
+      <c r="B20" t="str">
+        <v>tom.welsh@refpl.com</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Luke Howard</v>
+      </c>
+      <c r="B21" t="str">
+        <v>lukehoward1988@aol.com</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Phil Lewin</v>
+      </c>
+      <c r="B22" t="str">
+        <v>phil@thewingrove.com</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Brian davidson</v>
+      </c>
+      <c r="B23" t="str">
+        <v>uniteck_limited@yahoo.co.uk</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Danny Wilson</v>
+      </c>
+      <c r="B24" t="str">
+        <v>dannywils13@gmail.com</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Thomas Bate</v>
+      </c>
+      <c r="B25" t="str">
+        <v>tom@tjbestimating.co.uk</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Jack Wilkes</v>
+      </c>
+      <c r="B26" t="str">
+        <v>jrw0649@gmail.com</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Richard Warburton</v>
+      </c>
+      <c r="B27" t="str">
+        <v>richard.warburton@durham.ac.uk</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>john izzard</v>
+      </c>
+      <c r="B28" t="str">
+        <v>johnizzard@outlook.com</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Helen Bywater</v>
+      </c>
+      <c r="B29" t="str">
+        <v>bywaterhelen@yahoo.co.uk</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Clint Griffin</v>
+      </c>
+      <c r="B30" t="str">
+        <v>clintgriff@hotmail.com</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Mark Allen</v>
+      </c>
+      <c r="B31" t="str">
+        <v>mark.d.allen@outlook.com</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Chris McCabe</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Christophermccabe2008@gmail.com</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Admin for New</v>
+      </c>
+      <c r="B33" t="str">
+        <v>New@admin.com</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Gary Hodgson</v>
+      </c>
+      <c r="B34" t="str">
+        <v>garyhodgson1977@gmail.com</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Richard Edwards</v>
+      </c>
+      <c r="B35" t="str">
+        <v>riched88p@gmail.com</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Simon Stacey</v>
+      </c>
+      <c r="B36" t="str">
+        <v>simon@handlesetcetera.com</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>James Mitchell</v>
+      </c>
+      <c r="B37" t="str">
+        <v>jimboin1@hotmail.com</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Ryan holmes</v>
+      </c>
+      <c r="B38" t="str">
+        <v>ryan10holmes@gmail.com</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Sara Cavanaugh</v>
+      </c>
+      <c r="B39" t="str">
+        <v>cavanaugh54548@gmail.com</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Mark Weekes</v>
+      </c>
+      <c r="B40" t="str">
+        <v>mweekes10@hotmail.com</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>John Johnson</v>
+      </c>
+      <c r="B41" t="str">
+        <v>john@capital8financial.com.au</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Glen Joss</v>
+      </c>
+      <c r="B42" t="str">
+        <v>glenjoss@hotmail.com</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Josh Kerslake</v>
+      </c>
+      <c r="B43" t="str">
+        <v>jfkers90@gmail.com</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Ryan Jensen</v>
+      </c>
+      <c r="B44" t="str">
+        <v>jensen12345@hotmail.co.uk</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Ray Morgan</v>
+      </c>
+      <c r="B45" t="str">
+        <v>zeal49uk@yahoo.com</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Craig Turnock</v>
+      </c>
+      <c r="B46" t="str">
+        <v>metamate151@gmail.com</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Andrew Nicolson</v>
+      </c>
+      <c r="B47" t="str">
+        <v>anicolson@gmail.com</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v xml:space="preserve">Mark Josephson </v>
+      </c>
+      <c r="B48" t="str">
+        <v>mark@lemontreedairy.com.au</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Jack Anker</v>
+      </c>
+      <c r="B49" t="str">
+        <v>jack.anker90@gmail.com</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>David Hargrave</v>
+      </c>
+      <c r="B50" t="str">
+        <v>davidhargrave@btinternet.com</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Richard O'Brien</v>
+      </c>
+      <c r="B51" t="str">
+        <v>vespertine2@btopenworld.com</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Sandeep Grewal</v>
+      </c>
+      <c r="B52" t="str">
+        <v>grewal_ss@hotmail.com</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Doug Durrant</v>
+      </c>
+      <c r="B53" t="str">
+        <v>dougwdurrant@hotmail.com</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Luke Hogan</v>
+      </c>
+      <c r="B54" t="str">
+        <v>luke.hogan7@hotmail.com</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Alan barber</v>
+      </c>
+      <c r="B55" t="str">
+        <v>alanbarber63@gmail.com</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Neil Davies</v>
+      </c>
+      <c r="B56" t="str">
+        <v>theback71@hotmail.co.uk</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Jake Burton</v>
+      </c>
+      <c r="B57" t="str">
+        <v>burtoninho147@hotmail.co.uk</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>James Dart</v>
+      </c>
+      <c r="B58" t="str">
+        <v>james.dart7@gmail.com</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v xml:space="preserve">Andy lapthorne </v>
+      </c>
+      <c r="B59" t="str">
+        <v>Andylapthorne730@gmail.com</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>John David Gower</v>
+      </c>
+      <c r="B60" t="str">
+        <v>johndgower@gmail.com</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Adrian Lis</v>
+      </c>
+      <c r="B61" t="str">
+        <v>adr1anl1s@yahoo.co.uk</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Matt McCullagh</v>
+      </c>
+      <c r="B62" t="str">
+        <v>matthew.mccullagh@btinternet.com</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Ross</v>
+      </c>
+      <c r="B63" t="str">
+        <v>ross@255rt.com</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Richard Butler</v>
+      </c>
+      <c r="B64" t="str">
+        <v>rich@clippd.io</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Coxon, Graeme</v>
+      </c>
+      <c r="B65" t="str">
+        <v>graeme_coxon1989@outlook.com</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Ed McBrearty</v>
+      </c>
+      <c r="B66" t="str">
+        <v>ed.mcbrearty@ntlworld.com</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Ross Steele</v>
+      </c>
+      <c r="B67" t="str">
+        <v>ross.steele0811@gmail.com</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Shaun Marples</v>
+      </c>
+      <c r="B68" t="str">
+        <v>shaunmarples@britishparatabletennis.com</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Josh Simpson</v>
+      </c>
+      <c r="B69" t="str">
+        <v>joshsimpson95@outlook.com</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v xml:space="preserve">Tom Atkinson </v>
+      </c>
+      <c r="B70" t="str">
+        <v>atkogolf52@gmail.com</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Neil</v>
+      </c>
+      <c r="B71" t="str">
+        <v>neil_marples@hotmail.com</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Oli Chinery</v>
+      </c>
+      <c r="B72" t="str">
+        <v>oliver.chinery@outlook.com</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Mayukh Chhibber</v>
+      </c>
+      <c r="B73" t="str">
+        <v>mayukh_89@hotmail.com</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Peter Crouch</v>
+      </c>
+      <c r="B74" t="str">
+        <v>peter@pcrouch.com</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Ian Draper</v>
+      </c>
+      <c r="B75" t="str">
+        <v>ripples7@me.com</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Michael</v>
+      </c>
+      <c r="B76" t="str">
+        <v>mcqueen_mike@hotmail.co.uk</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Josh Nutter</v>
+      </c>
+      <c r="B77" t="str">
+        <v>josh_nutter1@hotmail.co.uk</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>James Gove</v>
+      </c>
+      <c r="B78" t="str">
+        <v>james.gove1@gmail.com</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Jordan</v>
+      </c>
+      <c r="B79" t="str">
+        <v>jordanfolorunso@gmail.com</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>BERNARD TONGE</v>
+      </c>
+      <c r="B80" t="str">
+        <v>btonge@dgl.ie</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Phin</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Phineaswilliams@yahoo.co.uk</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Jason Kelly</v>
+      </c>
+      <c r="B82" t="str">
+        <v>jason@jasonkellygolf.com</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v xml:space="preserve">Singh </v>
+      </c>
+      <c r="B83" t="str">
+        <v>sukhwindersinghssj@gmail.com</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Patrick kelly</v>
+      </c>
+      <c r="B84" t="str">
+        <v>patrick.kelly81@aol.co.uk</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Stephen Dawson</v>
+      </c>
+      <c r="B85" t="str">
+        <v>ste_dawson@hotmail.com</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>George Maddox</v>
+      </c>
+      <c r="B86" t="str">
+        <v>gmaddox@btinternet.com</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Kevin bywater</v>
+      </c>
+      <c r="B87" t="str">
+        <v>kevinbywater43@yahoo.com</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Mark Webber</v>
+      </c>
+      <c r="B88" t="str">
+        <v>mark.webber@tinsleybridge.co.uk</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Sean</v>
+      </c>
+      <c r="B89" t="str">
+        <v>seanw.oreilly@gmail.com</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Matty Hetherington</v>
+      </c>
+      <c r="B90" t="str">
+        <v>matthewhetherington2@gmail.com</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Marek Lenartowicz</v>
+      </c>
+      <c r="B91" t="str">
+        <v>mjl63@talktalk.net</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Steven Gray</v>
+      </c>
+      <c r="B92" t="str">
+        <v>steve_gray70@hotmail.com</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Mr John Hill</v>
+      </c>
+      <c r="B93" t="str">
+        <v>johnhill166@yahoo.com</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Joan Edwards</v>
+      </c>
+      <c r="B94" t="str">
+        <v>joedwards9@gmail.com</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>David Wilkes</v>
+      </c>
+      <c r="B95" t="str">
+        <v>dwilkes2017@gmail.com</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Sam Dibb</v>
+      </c>
+      <c r="B96" t="str">
+        <v>samdibb2@gmail.com</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>James Niknejad</v>
+      </c>
+      <c r="B97" t="str">
+        <v>jamesniknejad@gmail.com</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Dennis Holdsworth</v>
+      </c>
+      <c r="B98" t="str">
+        <v>dennisholdsworth@btinternet.com</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Tim Magnus</v>
+      </c>
+      <c r="B99" t="str">
+        <v>tim.magnus4@gmail.com</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Matt Wood</v>
+      </c>
+      <c r="B100" t="str">
+        <v>matthew.wood@efmdglobal.org</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Mark Swires</v>
+      </c>
+      <c r="B101" t="str">
+        <v>markswires91@gmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B101"/>
   </ignoredErrors>
 </worksheet>
 </file>